--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1d/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1d/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1600.40488283629</v>
+        <v>1000</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -704,245 +704,248 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1591.15241294625</v>
+        <v>1000</v>
       </c>
       <c r="B40">
-        <v>0.005781330705291521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1581.81823608905</v>
+        <v>998.3562618464</v>
       </c>
       <c r="B41">
-        <v>0.01161371534576927</v>
+        <v>0.001643738153599972</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1580.69087403905</v>
+        <v>997.8727367948001</v>
       </c>
       <c r="B42">
-        <v>0.01231813837152396</v>
+        <v>0.002127263205199958</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1579.73983683905</v>
+        <v>997.5485843148</v>
       </c>
       <c r="B43">
-        <v>0.01291238624604585</v>
+        <v>0.00245141568520002</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1584.55885083905</v>
+        <v>999.1911019148</v>
       </c>
       <c r="B44">
-        <v>0.009901264465750237</v>
+        <v>0.000808898085200016</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1569.04625328905</v>
+        <v>993.9037724948</v>
       </c>
       <c r="B45">
-        <v>0.01959418512374511</v>
+        <v>0.006096227505200003</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1573.39772718905</v>
+        <v>995.3869332548001</v>
       </c>
       <c r="B46">
-        <v>0.01687520197974957</v>
+        <v>0.004613066745199901</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1555.29690423905</v>
+        <v>989.2174304748</v>
       </c>
       <c r="B47">
-        <v>0.02818535426941349</v>
+        <v>0.01078256952519996</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1533.92250273905</v>
+        <v>981.9321578748001</v>
       </c>
       <c r="B48">
-        <v>0.04154097554327485</v>
+        <v>0.01806784212519996</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1586.10269058905</v>
+        <v>999.7173058148001</v>
       </c>
       <c r="B49">
-        <v>0.008936608729844031</v>
+        <v>0.0002826941851999942</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1575.92770953905</v>
+        <v>996.2492549948</v>
       </c>
       <c r="B50">
-        <v>0.01529436304509435</v>
+        <v>0.003750745005200007</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1578.92204058905</v>
+        <v>997.2698458148</v>
       </c>
       <c r="B51">
-        <v>0.01342337959452311</v>
+        <v>0.002730154185200062</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1572.80728990559</v>
+        <v>995.7720002948</v>
       </c>
       <c r="B52">
-        <v>0.0172441319235358</v>
+        <v>0.004227999705199936</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1622.44785663878</v>
+        <v>1005.7981561548</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1592.49957511904</v>
+        <v>998.26272224493</v>
       </c>
       <c r="B54">
-        <v>0.01845870201448807</v>
+        <v>0.007491994157832083</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1580.73443714834</v>
+        <v>994.8545110032301</v>
       </c>
       <c r="B55">
-        <v>0.02571017571982714</v>
+        <v>0.01088055797736587</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1569.49884435658</v>
+        <v>991.30029031735</v>
       </c>
       <c r="B56">
-        <v>0.0326352628625578</v>
+        <v>0.01441428953586066</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1568.93120882658</v>
+        <v>990.9822325449401</v>
       </c>
       <c r="B57">
-        <v>0.03298512651313823</v>
+        <v>0.01473051379066126</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1580.31413576658</v>
+        <v>995.89622359294</v>
       </c>
       <c r="B58">
-        <v>0.02596922958096681</v>
+        <v>0.009844850580871478</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1593.56615916658</v>
+        <v>1002.47081142152</v>
       </c>
       <c r="B59">
-        <v>0.01780131013395647</v>
+        <v>0.003308163484809334</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1609.12757426658</v>
+        <v>1011.19502026536</v>
       </c>
       <c r="B60">
-        <v>0.008209991043900633</v>
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1578.42777282658</v>
+        <v>991.80189240179</v>
       </c>
       <c r="B61">
-        <v>0.02713189433612762</v>
+        <v>0.01917842500695943</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1567.47003295658</v>
+        <v>984.91610961179</v>
       </c>
       <c r="B62">
-        <v>0.03388572610037366</v>
+        <v>0.02598797474959269</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1568.68300317658</v>
+        <v>985.6783333517901</v>
       </c>
       <c r="B63">
-        <v>0.03313810871776468</v>
+        <v>0.02523418964906876</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1517.93250183658</v>
+        <v>953.78700057179</v>
       </c>
       <c r="B64">
-        <v>0.06441831358372541</v>
+        <v>0.05677245095461891</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1599.78640858658</v>
+        <v>1005.22354032179</v>
       </c>
       <c r="B65">
-        <v>0.01396744305801467</v>
+        <v>0.005905369215527756</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1601.76126223658</v>
+        <v>1006.46452737179</v>
       </c>
       <c r="B66">
-        <v>0.01275023682120457</v>
+        <v>0.004678121231578736</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1602.76271807658</v>
+        <v>1007.09383665179</v>
       </c>
       <c r="B67">
-        <v>0.01213298688253794</v>
+        <v>0.004055779084526923</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1688.93324482658</v>
+        <v>1061.24291640179</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1772.52027450658</v>
+        <v>1113.76854096179</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -950,23 +953,23 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1753.24656620658</v>
+        <v>1101.65704986179</v>
       </c>
       <c r="B70">
-        <v>0.0108736179648864</v>
+        <v>0.01087433398822801</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1701.83130538658</v>
+        <v>1069.34798592179</v>
       </c>
       <c r="B71">
-        <v>0.03988048550794587</v>
+        <v>0.03988311162177449</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1783.68737044658</v>
+        <v>1120.78588194179</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -977,31 +980,31 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1745.48312513658</v>
+        <v>1096.77854667179</v>
       </c>
       <c r="B73">
-        <v>0.02141868913969769</v>
+        <v>0.02142009072099171</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1781.08876520658</v>
+        <v>1119.15293286179</v>
       </c>
       <c r="B74">
-        <v>0.001456872590486324</v>
+        <v>0.001456967924302388</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1764.97913936658</v>
+        <v>1109.02973358179</v>
       </c>
       <c r="B75">
-        <v>0.01048851462984579</v>
+        <v>0.01048920096997663</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1915.98961513658</v>
+        <v>1203.92387667179</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1918.45008853658</v>
+        <v>1205.47002447179</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1020,15 +1023,15 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1896.56482513658</v>
+        <v>1191.71744667179</v>
       </c>
       <c r="B78">
-        <v>0.01140778357006633</v>
+        <v>0.01140847762351116</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1938.27848250658</v>
+        <v>1217.93007696179</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1039,7 +1042,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1938.85690958658</v>
+        <v>1218.29355732179</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1047,79 +1050,79 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1892.61295952658</v>
+        <v>1189.23411630179</v>
       </c>
       <c r="B81">
-        <v>0.0238511412736796</v>
+        <v>0.02385257711112077</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1879.80338967658</v>
+        <v>1181.18465385179</v>
       </c>
       <c r="B82">
-        <v>0.03045790518011549</v>
+        <v>0.03045973874439378</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1900.02243775658</v>
+        <v>1193.89019121179</v>
       </c>
       <c r="B83">
-        <v>0.02002957084557644</v>
+        <v>0.02003077662468011</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1888.43878798658</v>
+        <v>1186.61109012179</v>
       </c>
       <c r="B84">
-        <v>0.02600404462583594</v>
+        <v>0.02600561006794477</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1828.47230294658</v>
+        <v>1148.92848444179</v>
       </c>
       <c r="B85">
-        <v>0.05693282784005804</v>
+        <v>0.05693625519327794</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1835.91415582658</v>
+        <v>1153.60490340179</v>
       </c>
       <c r="B86">
-        <v>0.05309455960932674</v>
+        <v>0.05309775589900245</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1814.67206880658</v>
+        <v>1140.25649406179</v>
       </c>
       <c r="B87">
-        <v>0.06405054450690706</v>
+        <v>0.06405440034629328</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1873.90041182658</v>
+        <v>1177.47525540179</v>
       </c>
       <c r="B88">
-        <v>0.03350247119260097</v>
+        <v>0.03350448803959194</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1937.04608749658</v>
+        <v>1217.15564679179</v>
       </c>
       <c r="B89">
-        <v>0.0009339637603198447</v>
+        <v>0.0009340199848887343</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2037.76146533658</v>
+        <v>1280.44463007179</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1130,15 +1133,15 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2022.07486825658</v>
+        <v>1270.58725971179</v>
       </c>
       <c r="B91">
-        <v>0.007697955500109877</v>
+        <v>0.007698396423004517</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2067.76197433658</v>
+        <v>1299.29678307179</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1149,47 +1152,47 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2033.15994841658</v>
+        <v>1277.55306243179</v>
       </c>
       <c r="B93">
-        <v>0.01673404693066849</v>
+        <v>0.0167349915148669</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2040.00610773658</v>
+        <v>1281.85515087179</v>
       </c>
       <c r="B94">
-        <v>0.01342314393265931</v>
+        <v>0.01342390162682039</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2028.54548163658</v>
+        <v>1274.65335717179</v>
       </c>
       <c r="B95">
-        <v>0.01896567070423183</v>
+        <v>0.0189667412565574</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2020.06979826658</v>
+        <v>1269.32728488179</v>
       </c>
       <c r="B96">
-        <v>0.02306463541834947</v>
+        <v>0.02306593734431195</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1999.51837044658</v>
+        <v>1256.41288194179</v>
       </c>
       <c r="B97">
-        <v>0.03300360715449135</v>
+        <v>0.03300547010407739</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2089.09255206658</v>
+        <v>1312.70079948179</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2123.61687882658</v>
+        <v>1334.39569440179</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2132.62350645658</v>
+        <v>1340.05540911179</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2150.17488337658</v>
+        <v>1351.08459675179</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2205.57870107658</v>
+        <v>1385.90004765179</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1232,15 +1235,15 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2140.846667556581</v>
+        <v>1345.22279781179</v>
       </c>
       <c r="B103">
-        <v>0.02934922861215628</v>
+        <v>0.02935078176014327</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2220.97392630658</v>
+        <v>1395.57432156179</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>2243.28653508658</v>
+        <v>1409.59544082179</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1259,15 +1262,15 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>2222.38761935658</v>
+        <v>1396.46267841179</v>
       </c>
       <c r="B106">
-        <v>0.009316204329284705</v>
+        <v>0.009316689051110716</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>2247.14990998658</v>
+        <v>1412.02316412179</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1278,599 +1281,599 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>2152.26196914658</v>
+        <v>1352.39610984179</v>
       </c>
       <c r="B108">
-        <v>0.04222590598798426</v>
+        <v>0.04222809922320603</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>2154.97064819658</v>
+        <v>1354.09822869179</v>
       </c>
       <c r="B109">
-        <v>0.04102052176418913</v>
+        <v>0.04102265239113589</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>2109.37203282658</v>
+        <v>1325.44431240179</v>
       </c>
       <c r="B110">
-        <v>0.06131227674117357</v>
+        <v>0.06131546133228494</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2208.37587083658</v>
+        <v>1387.65777357179</v>
       </c>
       <c r="B111">
-        <v>0.01725476301233153</v>
+        <v>0.01725565923357519</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2085.153636316581</v>
+        <v>1310.22560673179</v>
       </c>
       <c r="B112">
-        <v>0.07208966030707198</v>
+        <v>0.07209340468101522</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>2085.72127184658</v>
+        <v>1310.58230574179</v>
       </c>
       <c r="B113">
-        <v>0.07183705787610972</v>
+        <v>0.07184078912975289</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>2103.12372537658</v>
+        <v>1321.51791075179</v>
       </c>
       <c r="B114">
-        <v>0.06409282441279596</v>
+        <v>0.06409615342698016</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>2097.47111148658</v>
+        <v>1317.96583962179</v>
       </c>
       <c r="B115">
-        <v>0.06660828360173532</v>
+        <v>0.06661174327016028</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>2159.09949522658</v>
+        <v>1356.69277320179</v>
       </c>
       <c r="B116">
-        <v>0.03918315123022931</v>
+        <v>0.03918518642320779</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>2098.60854085658</v>
+        <v>1318.68059391179</v>
       </c>
       <c r="B117">
-        <v>0.06610211827429324</v>
+        <v>0.06610555165223142</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>2025.16340986658</v>
+        <v>1272.52808208179</v>
       </c>
       <c r="B118">
-        <v>0.09878579935119947</v>
+        <v>0.0987909303363016</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B119">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B120">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B121">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B122">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B123">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B124">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B125">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>1949.546171129695</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B126">
-        <v>0.1324360860547407</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>1956.219461169955</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B127">
-        <v>0.129466417671424</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>1959.457197637075</v>
+        <v>1225.010629824387</v>
       </c>
       <c r="B128">
-        <v>0.1280255985908939</v>
+        <v>0.132442964852999</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>1943.053253360095</v>
+        <v>1222.263944415897</v>
       </c>
       <c r="B129">
-        <v>0.1353254873095233</v>
+        <v>0.1343881775650003</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>1867.403630540095</v>
+        <v>1203.423183780897</v>
       </c>
       <c r="B130">
-        <v>0.1689901851936317</v>
+        <v>0.1477312735663453</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>1858.253845340095</v>
+        <v>1199.757897323418</v>
       </c>
       <c r="B131">
-        <v>0.173061914079781</v>
+        <v>0.1503270429209929</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>1855.130499290095</v>
+        <v>1198.546623083417</v>
       </c>
       <c r="B132">
-        <v>0.1744518284936435</v>
+        <v>0.1511848717943269</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>1858.665161090095</v>
+        <v>1199.917410923417</v>
       </c>
       <c r="B133">
-        <v>0.1728788752232402</v>
+        <v>0.1502140748025845</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>1581.401194490095</v>
+        <v>1092.390836843417</v>
       </c>
       <c r="B134">
-        <v>0.2962635970737089</v>
+        <v>0.2263647901818725</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>1650.272257490095</v>
+        <v>1119.099931243418</v>
       </c>
       <c r="B135">
-        <v>0.2656154134817155</v>
+        <v>0.2074493112586836</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>1614.311761790095</v>
+        <v>1105.153983083418</v>
       </c>
       <c r="B136">
-        <v>0.281618126758737</v>
+        <v>0.2173258830560547</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>1631.050985990095</v>
+        <v>1111.645672043418</v>
       </c>
       <c r="B137">
-        <v>0.2741690357454454</v>
+        <v>0.2127284450501156</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>1601.654735840095</v>
+        <v>1100.245423723418</v>
       </c>
       <c r="B138">
-        <v>0.2872506063248534</v>
+        <v>0.2208021428545637</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>1626.746765690095</v>
+        <v>1109.976439403418</v>
       </c>
       <c r="B139">
-        <v>0.2760844488119576</v>
+        <v>0.2139106017472674</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>1633.858547690095</v>
+        <v>1112.734481003418</v>
       </c>
       <c r="B140">
-        <v>0.2729196479375725</v>
+        <v>0.2119573465386565</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>1729.947965515715</v>
+        <v>1139.125577323417</v>
       </c>
       <c r="B141">
-        <v>0.2301590749118976</v>
+        <v>0.1932670750257144</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>1736.994395469215</v>
+        <v>1140.703218283418</v>
       </c>
       <c r="B142">
-        <v>0.2270233562301199</v>
+        <v>0.1921497838933262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>1732.872507802775</v>
+        <v>1139.969798763417</v>
       </c>
       <c r="B143">
-        <v>0.2288576297906518</v>
+        <v>0.1926691942958151</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>1650.656808348695</v>
+        <v>1121.217248926378</v>
       </c>
       <c r="B144">
-        <v>0.265444285219693</v>
+        <v>0.2059498190854961</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>1816.651546334595</v>
+        <v>1164.957941999328</v>
       </c>
       <c r="B145">
-        <v>0.1915752757476495</v>
+        <v>0.1749724993188232</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>1887.456010274595</v>
+        <v>1187.813731367577</v>
       </c>
       <c r="B146">
-        <v>0.1600667130009734</v>
+        <v>0.1587859451963454</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>1870.281314414595</v>
+        <v>1181.167115957758</v>
       </c>
       <c r="B147">
-        <v>0.1677095924473662</v>
+        <v>0.1634931026840581</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>1885.577488034595</v>
+        <v>1187.788635198837</v>
       </c>
       <c r="B148">
-        <v>0.1609026706874864</v>
+        <v>0.1588037183953818</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>1789.035227534595</v>
+        <v>1139.717134463458</v>
       </c>
       <c r="B149">
-        <v>0.2038647623890483</v>
+        <v>0.1928481320826586</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>1757.779271894595</v>
+        <v>1122.179954298977</v>
       </c>
       <c r="B150">
-        <v>0.2177739170480654</v>
+        <v>0.205268027598599</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>1667.112498074595</v>
+        <v>1065.857997393528</v>
       </c>
       <c r="B151">
-        <v>0.2581213693551264</v>
+        <v>0.2451554447009094</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>1798.037330714595</v>
+        <v>1155.595850097528</v>
       </c>
       <c r="B152">
-        <v>0.199858753203816</v>
+        <v>0.1816027672490401</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>1802.136388754595</v>
+        <v>1158.408020337528</v>
       </c>
       <c r="B153">
-        <v>0.1980346390128653</v>
+        <v>0.1796111779384291</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>1861.473189074595</v>
+        <v>1199.116198257528</v>
       </c>
       <c r="B154">
-        <v>0.1716292799149695</v>
+        <v>0.1507814965604196</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>1900.056912854595</v>
+        <v>1225.586669937528</v>
       </c>
       <c r="B155">
-        <v>0.1544592087913075</v>
+        <v>0.1320350111254845</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>1884.745425194596</v>
+        <v>1215.082180977528</v>
       </c>
       <c r="B156">
-        <v>0.1612729454236318</v>
+        <v>0.139474328855469</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>1916.111131454595</v>
+        <v>1236.600711537528</v>
       </c>
       <c r="B157">
-        <v>0.1473149508454299</v>
+        <v>0.1242348263410868</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>1894.617876314595</v>
+        <v>1221.855203697527</v>
       </c>
       <c r="B158">
-        <v>0.156879624321143</v>
+        <v>0.1346776492456042</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>2036.813842394595</v>
+        <v>1319.409144177527</v>
       </c>
       <c r="B159">
-        <v>0.09360126205075536</v>
+        <v>0.06558958967352646</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>2002.974918674595</v>
+        <v>1296.193855857528</v>
       </c>
       <c r="B160">
-        <v>0.1086598585287277</v>
+        <v>0.0820307422763159</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>2044.823085314595</v>
+        <v>1324.903907697528</v>
       </c>
       <c r="B161">
-        <v>0.09003708376233499</v>
+        <v>0.06169817793212096</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>2024.981194154595</v>
+        <v>1311.291322737527</v>
       </c>
       <c r="B162">
-        <v>0.09886688682612721</v>
+        <v>0.0713386606847296</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>1916.603733074595</v>
+        <v>1236.938662257528</v>
       </c>
       <c r="B163">
-        <v>0.1470957391151351</v>
+        <v>0.1239954883977819</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>1921.174974014595</v>
+        <v>1240.074774897528</v>
       </c>
       <c r="B164">
-        <v>0.1450614996904822</v>
+        <v>0.1217744818876298</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>1928.056082654595</v>
+        <v>1244.795578737528</v>
       </c>
       <c r="B165">
-        <v>0.1419993503387991</v>
+        <v>0.1184311912391819</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>1911.241266734595</v>
+        <v>1233.259727217528</v>
       </c>
       <c r="B166">
-        <v>0.1494820802827486</v>
+        <v>0.1266009237287865</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>1919.099921594595</v>
+        <v>1238.651179377528</v>
       </c>
       <c r="B167">
-        <v>0.1459849149066981</v>
+        <v>0.1227826774726402</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>1855.939715954595</v>
+        <v>1195.319943537527</v>
       </c>
       <c r="B168">
-        <v>0.1740917204915454</v>
+        <v>0.1534700181204475</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>1978.630699754595</v>
+        <v>1279.492436337528</v>
       </c>
       <c r="B169">
-        <v>0.1194932340911733</v>
+        <v>0.09385874902887326</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>1959.643842494595</v>
+        <v>1266.466449777528</v>
       </c>
       <c r="B170">
-        <v>0.1279425401101532</v>
+        <v>0.1030838006363668</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>2016.063318194595</v>
+        <v>1305.173188977528</v>
       </c>
       <c r="B171">
-        <v>0.1028354142129153</v>
+        <v>0.07567154552363031</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>1983.429098954595</v>
+        <v>1282.784391537527</v>
       </c>
       <c r="B172">
-        <v>0.1173579073919283</v>
+        <v>0.09152737424434743</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>1908.413274014595</v>
+        <v>1231.319574897528</v>
       </c>
       <c r="B173">
-        <v>0.1507405600608142</v>
+        <v>0.1279749467400921</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>1912.124376374595</v>
+        <v>1233.865587057528</v>
       </c>
       <c r="B174">
-        <v>0.1490890893051215</v>
+        <v>0.1261718515609961</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>1984.552128554595</v>
+        <v>1283.554849137528</v>
       </c>
       <c r="B175">
-        <v>0.1168581500793391</v>
+        <v>0.09098173333733051</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>2075.734475054595</v>
+        <v>1346.110753137528</v>
       </c>
       <c r="B176">
-        <v>0.07628126373331667</v>
+        <v>0.04667941196648628</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>2081.505315794595</v>
+        <v>1350.069854577528</v>
       </c>
       <c r="B177">
-        <v>0.07371319263385245</v>
+        <v>0.0438755617602028</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>2090.099044574595</v>
+        <v>1355.965606257528</v>
       </c>
       <c r="B178">
-        <v>0.06988891338047099</v>
+        <v>0.03970016872855442</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>2129.514831194595</v>
+        <v>1383.006916977528</v>
       </c>
       <c r="B179">
-        <v>0.0523485675206633</v>
+        <v>0.02054941298523894</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>2150.321506874595</v>
+        <v>1397.281395057528</v>
       </c>
       <c r="B180">
-        <v>0.04308942749287403</v>
+        <v>0.01044017508978423</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>2141.224967114595</v>
+        <v>1391.040688497528</v>
       </c>
       <c r="B181">
-        <v>0.04713746172484679</v>
+        <v>0.01485986643661952</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>2406.563681174595</v>
+        <v>1573.077055857528</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1881,15 +1884,15 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>2366.091225794595</v>
+        <v>1545.310814577527</v>
       </c>
       <c r="B183">
-        <v>0.01681752936628977</v>
+        <v>0.0176509098372577</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>2418.914454434595</v>
+        <v>1581.550338417527</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1900,7 +1903,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>2455.946355494595</v>
+        <v>1606.956177777528</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1908,23 +1911,23 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>2436.066179234595</v>
+        <v>1593.317327217528</v>
       </c>
       <c r="B186">
-        <v>0.008094711114321584</v>
+        <v>0.008487381764736623</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>2430.399984434595</v>
+        <v>1589.430018417528</v>
       </c>
       <c r="B187">
-        <v>0.01040184408052958</v>
+        <v>0.01090643267213365</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>2468.651904014595</v>
+        <v>1615.672854897527</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>2499.558189074595</v>
+        <v>1636.876198257528</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>2714.842963394595</v>
+        <v>1784.572920177528</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1951,199 +1954,199 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>2667.269898134595</v>
+        <v>1751.935285617527</v>
       </c>
       <c r="B191">
-        <v>0.01752332120179634</v>
+        <v>0.01828876488653286</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>2600.753365394595</v>
+        <v>1706.301432177528</v>
       </c>
       <c r="B192">
-        <v>0.04202438208703763</v>
+        <v>0.04386006708664703</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>2392.321623974596</v>
+        <v>1563.306252657528</v>
       </c>
       <c r="B193">
-        <v>0.1187992616032288</v>
+        <v>0.1239885829366886</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>2351.165141474596</v>
+        <v>1535.070732657528</v>
       </c>
       <c r="B194">
-        <v>0.1339590638661703</v>
+        <v>0.1398105870031802</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>2414.787320654596</v>
+        <v>1578.718906737528</v>
       </c>
       <c r="B195">
-        <v>0.1105241248889088</v>
+        <v>0.1153519764378816</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>2542.041888374596</v>
+        <v>1666.022259057528</v>
       </c>
       <c r="B196">
-        <v>0.06365048636328197</v>
+        <v>0.06643083046906617</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>2665.220369114595</v>
+        <v>1750.529200497527</v>
       </c>
       <c r="B197">
-        <v>0.01827825585092147</v>
+        <v>0.01907667615880526</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>2543.841288074595</v>
+        <v>1667.256742257528</v>
       </c>
       <c r="B198">
-        <v>0.06298768570620461</v>
+        <v>0.06573907773313603</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>2560.393212974595</v>
+        <v>1678.612236657528</v>
       </c>
       <c r="B199">
-        <v>0.0568908598038681</v>
+        <v>0.05937593377213124</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>2636.649475154596</v>
+        <v>1730.928058737528</v>
       </c>
       <c r="B200">
-        <v>0.0288022140854246</v>
+        <v>0.03006033591200252</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>2650.404035414595</v>
+        <v>1740.364413297528</v>
       </c>
       <c r="B201">
-        <v>0.02373578466558024</v>
+        <v>0.02477259762274209</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>2661.021769814596</v>
+        <v>1747.648739697528</v>
       </c>
       <c r="B202">
-        <v>0.01982479071743526</v>
+        <v>0.02069076587597596</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>2593.614470414595</v>
+        <v>1701.403773297528</v>
       </c>
       <c r="B203">
-        <v>0.04465396143149947</v>
+        <v>0.04660451021061462</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>2480.601959894595</v>
+        <v>1623.871224177527</v>
       </c>
       <c r="B204">
-        <v>0.08628160326706669</v>
+        <v>0.09005050686525806</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>2506.469925794595</v>
+        <v>1641.618014577527</v>
       </c>
       <c r="B205">
-        <v>0.07675325623234353</v>
+        <v>0.08010594803028781</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>2508.805316894595</v>
+        <v>1643.220216177528</v>
       </c>
       <c r="B206">
-        <v>0.07589302559230671</v>
+        <v>0.07920814128791009</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>2391.701405354595</v>
+        <v>1562.880749937528</v>
       </c>
       <c r="B207">
-        <v>0.1190277162977961</v>
+        <v>0.1242270168584348</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>2437.646077694595</v>
+        <v>1594.401220977528</v>
       </c>
       <c r="B208">
-        <v>0.1021042061870856</v>
+        <v>0.1065642636676801</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>2422.543881914595</v>
+        <v>1584.040317297528</v>
       </c>
       <c r="B209">
-        <v>0.1076670309926561</v>
+        <v>0.1123700806017224</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>2515.165748174595</v>
+        <v>1647.583807857528</v>
       </c>
       <c r="B210">
-        <v>0.07355018979452388</v>
+        <v>0.0767629670780684</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>2610.066854054595</v>
+        <v>1712.690977137528</v>
       </c>
       <c r="B211">
-        <v>0.03859380109742683</v>
+        <v>0.04027963342223595</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>2572.082930174595</v>
+        <v>1686.631999857527</v>
       </c>
       <c r="B212">
-        <v>0.05258500588980486</v>
+        <v>0.05488199401247051</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>2641.162012274595</v>
+        <v>1734.023897457528</v>
       </c>
       <c r="B213">
-        <v>0.02714004165746309</v>
+        <v>0.02832555741962695</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>2577.493890974595</v>
+        <v>1690.344204657528</v>
       </c>
       <c r="B214">
-        <v>0.05059190320469253</v>
+        <v>0.05280182975690684</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>2769.557475974595</v>
+        <v>1822.109964657528</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -2154,447 +2157,447 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>2595.301567154595</v>
+        <v>1702.561210737528</v>
       </c>
       <c r="B216">
-        <v>0.06291832190941615</v>
+        <v>0.06561006538508751</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>2633.127245954595</v>
+        <v>1728.511623537528</v>
       </c>
       <c r="B217">
-        <v>0.04926066030530407</v>
+        <v>0.05136810781757184</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>2664.475085834595</v>
+        <v>1750.017896817527</v>
       </c>
       <c r="B218">
-        <v>0.03794194236861681</v>
+        <v>0.03956515755817747</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>2621.621297234595</v>
+        <v>1720.617935217528</v>
       </c>
       <c r="B219">
-        <v>0.05341509610229045</v>
+        <v>0.05570027682663803</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>2633.142559994595</v>
+        <v>1728.522129777527</v>
       </c>
       <c r="B220">
-        <v>0.04925513088765066</v>
+        <v>0.05136234184284827</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>2653.737391454596</v>
+        <v>1742.651271537528</v>
       </c>
       <c r="B221">
-        <v>0.04181898571331977</v>
+        <v>0.04360806683527152</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>2662.675686134596</v>
+        <v>1748.783413617528</v>
       </c>
       <c r="B222">
-        <v>0.03859164894290124</v>
+        <v>0.04024265958821094</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>2660.230544414595</v>
+        <v>1747.105917297528</v>
       </c>
       <c r="B223">
-        <v>0.03947451262824142</v>
+        <v>0.04116329355242676</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>2688.962235794595</v>
+        <v>1766.817374577528</v>
       </c>
       <c r="B224">
-        <v>0.02910040354069166</v>
+        <v>0.03034536397499621</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>2491.795920730385</v>
+        <v>1636.260242047401</v>
       </c>
       <c r="B225">
-        <v>0.1002909517689166</v>
+        <v>0.1019969849322776</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>2507.656653800384</v>
+        <v>1640.320792177401</v>
       </c>
       <c r="B226">
-        <v>0.09456414046148254</v>
+        <v>0.09976849696571122</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>2508.361556190385</v>
+        <v>1640.501256187401</v>
       </c>
       <c r="B227">
-        <v>0.09430962240359231</v>
+        <v>0.09966945573686092</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>2497.093421030385</v>
+        <v>1637.616469747401</v>
       </c>
       <c r="B228">
-        <v>0.09837819121205682</v>
+        <v>0.1012526677800167</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>2497.880357814379</v>
+        <v>1639.461115267401</v>
       </c>
       <c r="B229">
-        <v>0.09809405311749808</v>
+        <v>0.1002402999450455</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>2504.210918844379</v>
+        <v>1641.649763437401</v>
       </c>
       <c r="B230">
-        <v>0.09580828685883891</v>
+        <v>0.09903913853741797</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>2500.367568294379</v>
+        <v>1640.321011987401</v>
       </c>
       <c r="B231">
-        <v>0.09719599972753379</v>
+        <v>0.09976837633084046</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>2493.50973234504</v>
+        <v>1638.588469567401</v>
       </c>
       <c r="B232">
-        <v>0.09967214835735283</v>
+        <v>0.1007192203817514</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>2487.080355615039</v>
+        <v>1636.915935277401</v>
       </c>
       <c r="B233">
-        <v>0.1019935938538893</v>
+        <v>0.1016371311129592</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>2491.19704945504</v>
+        <v>1637.986849597401</v>
       </c>
       <c r="B234">
-        <v>0.100507185329888</v>
+        <v>0.1010493980228757</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>2485.767272235039</v>
+        <v>1636.574350537401</v>
       </c>
       <c r="B235">
-        <v>0.1024677069175793</v>
+        <v>0.1018245977020376</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>2518.805599235039</v>
+        <v>1645.168921537401</v>
       </c>
       <c r="B236">
-        <v>0.09053860730993402</v>
+        <v>0.09710777425740247</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>2512.227313160059</v>
+        <v>1643.112042499911</v>
       </c>
       <c r="B237">
-        <v>0.09291381928226006</v>
+        <v>0.0982366188811552</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>2470.823366827629</v>
+        <v>1629.066085065861</v>
       </c>
       <c r="B238">
-        <v>0.1078634806240454</v>
+        <v>0.1059452411413325</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>2463.686166675289</v>
+        <v>1626.450080989691</v>
       </c>
       <c r="B239">
-        <v>0.1104404988712758</v>
+        <v>0.1073809415803353</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>2448.806454172349</v>
+        <v>1621.812370909691</v>
       </c>
       <c r="B240">
-        <v>0.1158130945411685</v>
+        <v>0.109926183179336</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>2423.539029232349</v>
+        <v>1613.830812349691</v>
       </c>
       <c r="B241">
-        <v>0.1249363660959892</v>
+        <v>0.1143065766324282</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>2441.092160132349</v>
+        <v>1619.375553949691</v>
       </c>
       <c r="B242">
-        <v>0.118598483220378</v>
+        <v>0.1112635431670784</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>2453.911749072349</v>
+        <v>1623.425048509691</v>
       </c>
       <c r="B243">
-        <v>0.1139697333023109</v>
+        <v>0.1090411226553938</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>2444.826510932349</v>
+        <v>1620.555173149691</v>
       </c>
       <c r="B244">
-        <v>0.1172501267293521</v>
+        <v>0.1106161512846563</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>2460.546109232349</v>
+        <v>1625.520732349691</v>
       </c>
       <c r="B245">
-        <v>0.1115742747434789</v>
+        <v>0.1078909814012166</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>2432.76023615282</v>
+        <v>1617.791569789691</v>
       </c>
       <c r="B246">
-        <v>0.1216068786235454</v>
+        <v>0.1121328563209076</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>2426.58240616622</v>
+        <v>1616.288883709691</v>
       </c>
       <c r="B247">
-        <v>0.1238374985114487</v>
+        <v>0.1129575519260834</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>2444.4061490524</v>
+        <v>1620.390982909691</v>
       </c>
       <c r="B248">
-        <v>0.1174019061683406</v>
+        <v>0.1107062612358582</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>2428.996089602399</v>
+        <v>1616.881350109691</v>
       </c>
       <c r="B249">
-        <v>0.1229659934218745</v>
+        <v>0.1126323978950471</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>2493.1070697124</v>
+        <v>1631.482591549691</v>
       </c>
       <c r="B250">
-        <v>0.09981753715543085</v>
+        <v>0.1046190278332986</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>2470.852797705569</v>
+        <v>1625.869543742511</v>
       </c>
       <c r="B251">
-        <v>0.1078528540607062</v>
+        <v>0.1076995487217485</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>2516.323955365569</v>
+        <v>1639.067774246911</v>
       </c>
       <c r="B252">
-        <v>0.09143465077211077</v>
+        <v>0.1004561711208358</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>2464.500527625569</v>
+        <v>1621.677539091451</v>
       </c>
       <c r="B253">
-        <v>0.1101464587737713</v>
+        <v>0.1100001808089276</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>2478.72951080557</v>
+        <v>1626.925767661791</v>
       </c>
       <c r="B254">
-        <v>0.1050088209729911</v>
+        <v>0.1071198779336142</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>2464.90772442557</v>
+        <v>1621.053836774071</v>
       </c>
       <c r="B255">
-        <v>0.109999432830626</v>
+        <v>0.1103424775580139</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>2482.39682698557</v>
+        <v>1628.996354295651</v>
       </c>
       <c r="B256">
-        <v>0.1036846685725397</v>
+        <v>0.105983510384991</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>2467.09386224557</v>
+        <v>1621.215253280631</v>
       </c>
       <c r="B257">
-        <v>0.1092100872983651</v>
+        <v>0.1102538898713807</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>2470.46087078557</v>
+        <v>1622.946997894921</v>
       </c>
       <c r="B258">
-        <v>0.1079943665309832</v>
+        <v>0.10930348366765</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>2455.63636228557</v>
+        <v>1614.164970329171</v>
       </c>
       <c r="B259">
-        <v>0.1133470297736131</v>
+        <v>0.1141231859557064</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>2439.379030045569</v>
+        <v>1604.642698129171</v>
       </c>
       <c r="B260">
-        <v>0.1192170405536853</v>
+        <v>0.1193491450825968</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>2444.62168884557</v>
+        <v>1607.713437129171</v>
       </c>
       <c r="B261">
-        <v>0.1173240815356907</v>
+        <v>0.1176638796158788</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>2448.68347692557</v>
+        <v>1610.092514529171</v>
       </c>
       <c r="B262">
-        <v>0.1158574977528174</v>
+        <v>0.1163582079241885</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>2458.53509450557</v>
+        <v>1615.862820679171</v>
       </c>
       <c r="B263">
-        <v>0.1123003888408483</v>
+        <v>0.1131913814088171</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>2446.26574592557</v>
+        <v>1608.676397029171</v>
       </c>
       <c r="B264">
-        <v>0.116730464290242</v>
+        <v>0.1171353934549566</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>2504.60177748557</v>
+        <v>1642.845076329171</v>
       </c>
       <c r="B265">
-        <v>0.0956671601104031</v>
+        <v>0.09838313373257357</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>2537.218241165569</v>
+        <v>1661.949246729171</v>
       </c>
       <c r="B266">
-        <v>0.08389038206447275</v>
+        <v>0.08789849187749732</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>2558.87856594557</v>
+        <v>1675.422399607011</v>
       </c>
       <c r="B267">
-        <v>0.0760695208012927</v>
+        <v>0.08050423294737152</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>2542.216581885569</v>
+        <v>1664.208305319851</v>
       </c>
       <c r="B268">
-        <v>0.08208563861236551</v>
+        <v>0.08665868822431622</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>2583.60304664557</v>
+        <v>1691.816953199851</v>
       </c>
       <c r="B269">
-        <v>0.06714228931594535</v>
+        <v>0.07150666753648194</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>2642.42262440557</v>
+        <v>1731.055120079851</v>
       </c>
       <c r="B270">
-        <v>0.04590439182862127</v>
+        <v>0.04997220054981177</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>2921.968317565569</v>
+        <v>1917.538277159851</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -2605,15 +2608,15 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>2890.48945994557</v>
+        <v>1896.538931099851</v>
       </c>
       <c r="B272">
-        <v>0.01077316869959288</v>
+        <v>0.01095120045848719</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>2939.928241425569</v>
+        <v>1929.519228339851</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -2624,15 +2627,15 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>2939.69410326557</v>
+        <v>1929.363036259851</v>
       </c>
       <c r="B274">
-        <v>7.964077377831114E-05</v>
+        <v>8.094870354535821E-05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>2999.717456565569</v>
+        <v>1969.404234159851</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>3118.23972014557</v>
+        <v>2048.469683699851</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -2651,71 +2654,71 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>2932.50198978557</v>
+        <v>1924.565223019851</v>
       </c>
       <c r="B277">
-        <v>0.0595649299058153</v>
+        <v>0.06048635313763073</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>2970.28476286557</v>
+        <v>1949.769871059851</v>
       </c>
       <c r="B278">
-        <v>0.0474482305911661</v>
+        <v>0.04818221788946997</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>2963.199538545569</v>
+        <v>1945.043362899851</v>
       </c>
       <c r="B279">
-        <v>0.04972041777235858</v>
+        <v>0.05048955404270195</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>3103.921662665569</v>
+        <v>2038.918198459851</v>
       </c>
       <c r="B280">
-        <v>0.004591711595326564</v>
+        <v>0.004662741809655979</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>3108.388102565569</v>
+        <v>2041.897732159851</v>
       </c>
       <c r="B281">
-        <v>0.003159352219251677</v>
+        <v>0.003208224945819182</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>3065.573904025569</v>
+        <v>2013.336652139851</v>
       </c>
       <c r="B282">
-        <v>0.01688959824985559</v>
+        <v>0.0171508672252082</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>3108.120879665569</v>
+        <v>2041.719469459851</v>
       </c>
       <c r="B283">
-        <v>0.003245048934059525</v>
+        <v>0.00329524732228792</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>3087.829754125569</v>
+        <v>2028.183388439851</v>
       </c>
       <c r="B284">
-        <v>0.009752286145139899</v>
+        <v>0.009903146442157618</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>3141.589911645569</v>
+        <v>2064.046448199851</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -2726,47 +2729,47 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>3014.12713332557</v>
+        <v>1979.016838039851</v>
       </c>
       <c r="B286">
-        <v>0.04057269787107087</v>
+        <v>0.04119558948596247</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>3057.964413825569</v>
+        <v>2008.260409539851</v>
       </c>
       <c r="B287">
-        <v>0.02661884592575514</v>
+        <v>0.02702751127943537</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>3112.851997485569</v>
+        <v>2044.875568119851</v>
       </c>
       <c r="B288">
-        <v>0.00914757016931822</v>
+        <v>0.0092880080759421</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>3107.89946640557</v>
+        <v>2041.571766079851</v>
       </c>
       <c r="B289">
-        <v>0.01072401114961319</v>
+        <v>0.0108886513380555</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>3131.277652685569</v>
+        <v>2057.167205719851</v>
       </c>
       <c r="B290">
-        <v>0.003282496840779192</v>
+        <v>0.003332891314533959</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>3146.191235485569</v>
+        <v>2067.115962119851</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>3240.38858022557</v>
+        <v>2129.954412739851</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -2785,503 +2788,503 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>3154.84671246557</v>
+        <v>2072.889975859851</v>
       </c>
       <c r="B293">
-        <v>0.02639864499030076</v>
+        <v>0.0267913888385034</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>3106.38520330557</v>
+        <v>2040.561610779851</v>
       </c>
       <c r="B294">
-        <v>0.04135410726286159</v>
+        <v>0.04196934987214573</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>3131.570325385569</v>
+        <v>2057.362445819851</v>
       </c>
       <c r="B295">
-        <v>0.03358185357893884</v>
+        <v>0.03408146507071086</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>3049.568524805569</v>
+        <v>2002.659565279851</v>
       </c>
       <c r="B296">
-        <v>0.05888801626585072</v>
+        <v>0.05976411828282047</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>3083.065551565569</v>
+        <v>2025.005219159851</v>
       </c>
       <c r="B297">
-        <v>0.04855066754032589</v>
+        <v>0.04927297643192241</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>3079.291346225569</v>
+        <v>2022.487470739851</v>
       </c>
       <c r="B298">
-        <v>0.04971540604206981</v>
+        <v>0.05045504324280847</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>3104.758961085569</v>
+        <v>2039.476754919851</v>
       </c>
       <c r="B299">
-        <v>0.04185597368404459</v>
+        <v>0.04247868277312772</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>2995.38081064557</v>
+        <v>1966.511285199851</v>
       </c>
       <c r="B300">
-        <v>0.07561061382426681</v>
+        <v>0.0767355050241455</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>3031.776569625569</v>
+        <v>1990.790664939851</v>
       </c>
       <c r="B301">
-        <v>0.06437870194736905</v>
+        <v>0.06533649122611385</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>2998.424606725569</v>
+        <v>1968.541782239851</v>
       </c>
       <c r="B302">
-        <v>0.07467128324565231</v>
+        <v>0.07578219962575072</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>3048.441098665569</v>
+        <v>2001.907466459851</v>
       </c>
       <c r="B303">
-        <v>0.05923594556879919</v>
+        <v>0.06011722387771079</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>3032.898905805569</v>
+        <v>1991.539368279851</v>
       </c>
       <c r="B304">
-        <v>0.06403234343134123</v>
+        <v>0.06498497978740803</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>3095.332355165569</v>
+        <v>2033.188325959851</v>
       </c>
       <c r="B305">
-        <v>0.04476507106129302</v>
+        <v>0.0454310600270198</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>3079.64255346557</v>
+        <v>2022.721758859851</v>
       </c>
       <c r="B306">
-        <v>0.04960702174453724</v>
+        <v>0.05034504646607052</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>3148.983078545569</v>
+        <v>2068.978382899851</v>
       </c>
       <c r="B307">
-        <v>0.02820819152301723</v>
+        <v>0.02862785676317081</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>3011.667130703942</v>
+        <v>1978.889368998675</v>
       </c>
       <c r="B308">
-        <v>0.07058457461472289</v>
+        <v>0.07092407369735876</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>2969.057662456042</v>
+        <v>1957.585888258995</v>
       </c>
       <c r="B309">
-        <v>0.08373406801434891</v>
+        <v>0.08092592191169523</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>2979.438819256042</v>
+        <v>1962.776161258995</v>
       </c>
       <c r="B310">
-        <v>0.08053039149747965</v>
+        <v>0.07848912187083257</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>2969.936015736042</v>
+        <v>1958.025039058995</v>
       </c>
       <c r="B311">
-        <v>0.08346300383230609</v>
+        <v>0.08071974341445909</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>2972.978639656042</v>
+        <v>1959.546261508995</v>
       </c>
       <c r="B312">
-        <v>0.08252403498808547</v>
+        <v>0.08000553918506292</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>2976.963861736042</v>
+        <v>1961.538755308995</v>
       </c>
       <c r="B313">
-        <v>0.08129417567296515</v>
+        <v>0.07907007606525029</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>2968.574976056042</v>
+        <v>1957.344559258995</v>
       </c>
       <c r="B314">
-        <v>0.08388302743327347</v>
+        <v>0.0810392243366469</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>2971.720935656042</v>
+        <v>1958.917446508995</v>
       </c>
       <c r="B315">
-        <v>0.08291216868528317</v>
+        <v>0.08030076381345819</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>2975.720774296042</v>
+        <v>1960.917248158995</v>
       </c>
       <c r="B316">
-        <v>0.08167779862719526</v>
+        <v>0.07936186970472103</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>2977.455046136042</v>
+        <v>1961.784333058995</v>
       </c>
       <c r="B317">
-        <v>0.08114259372905952</v>
+        <v>0.07895477887929603</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>2980.070400512642</v>
+        <v>1962.685577908995</v>
       </c>
       <c r="B318">
-        <v>0.08033548238674704</v>
+        <v>0.07853165017540942</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>2972.093053487432</v>
+        <v>1959.727169326725</v>
       </c>
       <c r="B319">
-        <v>0.08279733127545497</v>
+        <v>0.07992060411948221</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>3002.798396367352</v>
+        <v>1971.849234156685</v>
       </c>
       <c r="B320">
-        <v>0.07332151005225374</v>
+        <v>0.07422937206425384</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>3015.059147218542</v>
+        <v>1976.897351638165</v>
       </c>
       <c r="B321">
-        <v>0.06953778148154743</v>
+        <v>0.0718593131318721</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>3036.471066206202</v>
+        <v>1985.995262731995</v>
       </c>
       <c r="B322">
-        <v>0.06292995700076576</v>
+        <v>0.06758790195076281</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>3034.223867215452</v>
+        <v>1985.005314363625</v>
       </c>
       <c r="B323">
-        <v>0.06362345376361189</v>
+        <v>0.06805267639027612</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>3032.941571515452</v>
+        <v>1984.427081013625</v>
       </c>
       <c r="B324">
-        <v>0.06401917658149392</v>
+        <v>0.06832415325688945</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>3059.599203684852</v>
+        <v>1996.352072990025</v>
       </c>
       <c r="B325">
-        <v>0.05579249897496319</v>
+        <v>0.06272544564837301</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>3027.289225429332</v>
+        <v>1981.725891072265</v>
       </c>
       <c r="B326">
-        <v>0.06576351863991658</v>
+        <v>0.06959234469103626</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>2917.238520692652</v>
+        <v>1931.496466674065</v>
       </c>
       <c r="B327">
-        <v>0.09972571237441596</v>
+        <v>0.09317473880133453</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>2941.781012602652</v>
+        <v>1943.665289892405</v>
       </c>
       <c r="B328">
-        <v>0.09215177755074377</v>
+        <v>0.08746155398124889</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>2878.857985252652</v>
+        <v>1909.404379099185</v>
       </c>
       <c r="B329">
-        <v>0.111570136118598</v>
+        <v>0.1035468328906453</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>2986.920068592652</v>
+        <v>1968.073001259185</v>
       </c>
       <c r="B330">
-        <v>0.07822164081792715</v>
+        <v>0.07600228930366204</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>2976.078047742652</v>
+        <v>1962.186695859185</v>
       </c>
       <c r="B331">
-        <v>0.08156754226819241</v>
+        <v>0.0787658721131308</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>2985.234259912652</v>
+        <v>1967.157748939185</v>
       </c>
       <c r="B332">
-        <v>0.07874188974433294</v>
+        <v>0.07643199442529536</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>2995.847463934203</v>
+        <v>1972.569830339185</v>
       </c>
       <c r="B333">
-        <v>0.07546660230309288</v>
+        <v>0.07389105675656926</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>2975.710427458182</v>
+        <v>1963.307050059185</v>
       </c>
       <c r="B334">
-        <v>0.08168099171271681</v>
+        <v>0.07823987296812607</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>3015.025681195972</v>
+        <v>1980.421794219185</v>
       </c>
       <c r="B335">
-        <v>0.06954810926222599</v>
+        <v>0.07020460983872212</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>2997.538221515973</v>
+        <v>1972.163898522625</v>
       </c>
       <c r="B336">
-        <v>0.07494482612103626</v>
+        <v>0.07408163915313704</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>2954.439529995972</v>
+        <v>1950.512724726885</v>
       </c>
       <c r="B337">
-        <v>0.08824529625076372</v>
+        <v>0.08424672703775959</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>2941.101544235972</v>
+        <v>1943.289602117025</v>
       </c>
       <c r="B338">
-        <v>0.09236146486134189</v>
+        <v>0.0876379369935486</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>2933.344546155972</v>
+        <v>1938.782011581025</v>
       </c>
       <c r="B339">
-        <v>0.09475531297182371</v>
+        <v>0.0897542219755364</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>2967.440849995972</v>
+        <v>1958.160245351025</v>
       </c>
       <c r="B340">
-        <v>0.0842330243648115</v>
+        <v>0.08065626492345412</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>3001.813602955972</v>
+        <v>1977.695595731025</v>
       </c>
       <c r="B341">
-        <v>0.07362542218717172</v>
+        <v>0.07148454262594706</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>2949.110357355973</v>
+        <v>1947.742325181025</v>
       </c>
       <c r="B342">
-        <v>0.08988990537959507</v>
+        <v>0.08554741193941251</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>2967.375159115972</v>
+        <v>1958.122910711025</v>
       </c>
       <c r="B343">
-        <v>0.08425329689644578</v>
+        <v>0.08067379329860458</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>3038.315835275972</v>
+        <v>1998.441210691025</v>
       </c>
       <c r="B344">
-        <v>0.06236065210905384</v>
+        <v>0.06174460883397714</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>3072.548995115972</v>
+        <v>2018.932666749185</v>
       </c>
       <c r="B345">
-        <v>0.05179612906113684</v>
+        <v>0.05212400102397208</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>3138.946052075972</v>
+        <v>2060.940711516065</v>
       </c>
       <c r="B346">
-        <v>0.03130566771178278</v>
+        <v>0.03240149216856258</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>3159.693421675972</v>
+        <v>2074.663541949546</v>
       </c>
       <c r="B347">
-        <v>0.02490292647062098</v>
+        <v>0.02595871088113211</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>3203.276583435972</v>
+        <v>2103.698495529545</v>
       </c>
       <c r="B348">
-        <v>0.01145294642009065</v>
+        <v>0.01232698552291145</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>3173.800538155972</v>
+        <v>2084.061654789545</v>
       </c>
       <c r="B349">
-        <v>0.02054940030215813</v>
+        <v>0.0215463568965647</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>3173.069727115972</v>
+        <v>2083.574790969545</v>
       </c>
       <c r="B350">
-        <v>0.02077493221658955</v>
+        <v>0.02177493635210981</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>3196.945624875972</v>
+        <v>2099.480832549546</v>
       </c>
       <c r="B351">
-        <v>0.01340671165634488</v>
+        <v>0.01430715136813931</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>3146.089935275972</v>
+        <v>2065.600945749545</v>
       </c>
       <c r="B352">
-        <v>0.02910102989655428</v>
+        <v>0.03021354194502457</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>3157.279281835973</v>
+        <v>2073.055250229545</v>
       </c>
       <c r="B353">
-        <v>0.02564794200818088</v>
+        <v>0.02671379357697778</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>3196.403675115972</v>
+        <v>2099.119787469545</v>
       </c>
       <c r="B354">
-        <v>0.0135739600423278</v>
+        <v>0.01447665972843126</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>3264.374576075973</v>
+        <v>2144.401769649545</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>3307.763402315973</v>
+        <v>2173.307257569546</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -3300,7 +3303,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>3546.158342955972</v>
+        <v>2332.125153189545</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>3597.495765675973</v>
+        <v>2366.325968949545</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -3316,15 +3319,15 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>3585.055555275972</v>
+        <v>2358.038343249546</v>
       </c>
       <c r="B359">
-        <v>0.003458019469735896</v>
+        <v>0.003502317858464332</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>3636.694061195973</v>
+        <v>2392.439739609546</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -3335,23 +3338,23 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>3614.003336395972</v>
+        <v>2377.323256209545</v>
       </c>
       <c r="B361">
-        <v>0.00623938236711008</v>
+        <v>0.006318438516853542</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>3620.397248715973</v>
+        <v>2381.582858769546</v>
       </c>
       <c r="B362">
-        <v>0.004481216238090835</v>
+        <v>0.004537995528268501</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>3780.239582475972</v>
+        <v>2488.069275849545</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -3362,31 +3365,31 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>3679.029096235972</v>
+        <v>2420.643195429545</v>
       </c>
       <c r="B364">
-        <v>0.02677356395853348</v>
+        <v>0.02709976007278869</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>3730.842777835973</v>
+        <v>2455.161293229546</v>
       </c>
       <c r="B365">
-        <v>0.01306710952104406</v>
+        <v>0.01322631284402764</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>3759.418310635972</v>
+        <v>2474.198215629545</v>
       </c>
       <c r="B366">
-        <v>0.00550792387247645</v>
+        <v>0.005575029744806281</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>3822.618411435972</v>
+        <v>2516.301907029545</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -3397,23 +3400,23 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>3814.543907435972</v>
+        <v>2510.922700029545</v>
       </c>
       <c r="B368">
-        <v>0.002112296633073218</v>
+        <v>0.002137743084394073</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>3756.481380875973</v>
+        <v>2472.241643049545</v>
       </c>
       <c r="B369">
-        <v>0.01730149950676219</v>
+        <v>0.01750992750786884</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>3886.264662795973</v>
+        <v>2558.702822409546</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>3919.241484555972</v>
+        <v>2580.671868489545</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>4315.031773675973</v>
+        <v>2844.346007949545</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -3440,47 +3443,47 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>4312.267282475973</v>
+        <v>2842.504313349546</v>
       </c>
       <c r="B373">
-        <v>0.0006406653171975307</v>
+        <v>0.0006474931653366323</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>4103.802749035973</v>
+        <v>2703.625952829545</v>
       </c>
       <c r="B374">
-        <v>0.04895190481066936</v>
+        <v>0.04947360649045762</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>4283.576790635972</v>
+        <v>2823.390805629545</v>
       </c>
       <c r="B375">
-        <v>0.007289629529935948</v>
+        <v>0.007367318273315937</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>4243.425977355972</v>
+        <v>2796.642470889546</v>
       </c>
       <c r="B376">
-        <v>0.0165945003596113</v>
+        <v>0.01677135514690375</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>4234.886162955972</v>
+        <v>2790.953275689545</v>
       </c>
       <c r="B377">
-        <v>0.01857358529986541</v>
+        <v>0.01877153205368653</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>4340.820918315972</v>
+        <v>2861.526648069545</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>4507.133803755973</v>
+        <v>2972.323724589546</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -3499,7 +3502,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>4515.027657835973</v>
+        <v>2977.582583229545</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -3507,23 +3510,23 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>4446.531229835972</v>
+        <v>2931.950496729545</v>
       </c>
       <c r="B381">
-        <v>0.01517076598215794</v>
+        <v>0.01532521272693188</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>4415.478603435972</v>
+        <v>2911.263343029545</v>
       </c>
       <c r="B382">
-        <v>0.02204838196887449</v>
+        <v>0.02227284662851192</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>4622.560891275973</v>
+        <v>3049.220856249545</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>4881.440437995973</v>
+        <v>3221.685526509546</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -3542,7 +3545,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>4913.393576875972</v>
+        <v>3242.972598549545</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -3550,7 +3553,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>4920.701687275972</v>
+        <v>3247.841236749545</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>5154.136966475972</v>
+        <v>3403.355022849545</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>5167.310725035972</v>
+        <v>3412.131335829546</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -3574,23 +3577,23 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>5088.106683595972</v>
+        <v>3359.365873809545</v>
       </c>
       <c r="B389">
-        <v>0.01532790375005921</v>
+        <v>0.01546407709044773</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>5075.398235435972</v>
+        <v>3350.899549029545</v>
       </c>
       <c r="B390">
-        <v>0.01778729681470037</v>
+        <v>0.01794531944214095</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>5292.180876555973</v>
+        <v>3495.319404489545</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -3601,47 +3604,47 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>5171.501255755973</v>
+        <v>3414.923053089546</v>
       </c>
       <c r="B392">
-        <v>0.02280338174656926</v>
+        <v>0.02300114584570856</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>4741.871952075972</v>
+        <v>3128.705477649545</v>
       </c>
       <c r="B393">
-        <v>0.1039852826871118</v>
+        <v>0.1048871031268571</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>4739.148517675972</v>
+        <v>3126.891134949546</v>
       </c>
       <c r="B394">
-        <v>0.1044998974486867</v>
+        <v>0.1054061809249174</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>4897.991802635972</v>
+        <v>3232.711989129545</v>
       </c>
       <c r="B395">
-        <v>0.07448518543011884</v>
+        <v>0.07513116398538433</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>5025.306202315973</v>
+        <v>3317.528407569545</v>
       </c>
       <c r="B396">
-        <v>0.05042810902821515</v>
+        <v>0.0508654507200792</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>5438.852188875971</v>
+        <v>3593.031332049545</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -3652,127 +3655,127 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>5184.050950955972</v>
+        <v>3423.283617189546</v>
       </c>
       <c r="B398">
-        <v>0.04684834760561085</v>
+        <v>0.0472435943839018</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>5304.246101515972</v>
+        <v>3503.357216169545</v>
       </c>
       <c r="B399">
-        <v>0.024748987963914</v>
+        <v>0.02495778845013508</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>5363.863312235973</v>
+        <v>3543.073998429546</v>
       </c>
       <c r="B400">
-        <v>0.01378762908713937</v>
+        <v>0.01390395156713031</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>5152.727349675972</v>
+        <v>3402.415940949545</v>
       </c>
       <c r="B401">
-        <v>0.05260757771376978</v>
+        <v>0.05305141355148391</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>5288.800533355972</v>
+        <v>3493.067431389545</v>
       </c>
       <c r="B402">
-        <v>0.0275888460118292</v>
+        <v>0.02782160560870417</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>5346.756312235973</v>
+        <v>3531.677373429546</v>
       </c>
       <c r="B403">
-        <v>0.0169329618533044</v>
+        <v>0.01707582065113844</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>5294.066752235973</v>
+        <v>3496.575768429546</v>
       </c>
       <c r="B404">
-        <v>0.02662058677309287</v>
+        <v>0.02684517742988302</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>5063.385015755973</v>
+        <v>3342.896383089545</v>
       </c>
       <c r="B405">
-        <v>0.06903426680503244</v>
+        <v>0.06961669015486061</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>5122.827050795972</v>
+        <v>3382.496463909545</v>
       </c>
       <c r="B406">
-        <v>0.05810511613578362</v>
+        <v>0.05859533321127652</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>5044.367505995972</v>
+        <v>3330.226983009546</v>
       </c>
       <c r="B407">
-        <v>0.07253087033452288</v>
+        <v>0.07314279357817055</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>4984.670918795972</v>
+        <v>3290.457320409545</v>
       </c>
       <c r="B408">
-        <v>0.08350682355533245</v>
+        <v>0.08421134793372487</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>5196.020376715973</v>
+        <v>3431.257607769546</v>
       </c>
       <c r="B409">
-        <v>0.04464762117578047</v>
+        <v>0.04502430102320309</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>5296.281082315973</v>
+        <v>3498.050947569546</v>
       </c>
       <c r="B410">
-        <v>0.02621345489984028</v>
+        <v>0.02643461069564901</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>5323.145915115972</v>
+        <v>3515.948207469546</v>
       </c>
       <c r="B411">
-        <v>0.02127402432385495</v>
+        <v>0.02145350748612296</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>5365.103227595972</v>
+        <v>3543.900025809546</v>
       </c>
       <c r="B412">
-        <v>0.01355965536824788</v>
+        <v>0.01367405449592152</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>5887.644069675973</v>
+        <v>3892.014950949545</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -3783,7 +3786,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>6287.712477355973</v>
+        <v>4158.539158389545</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -3791,7 +3794,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>6372.626151115972</v>
+        <v>4215.108357969546</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -3799,7 +3802,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>6568.116735755972</v>
+        <v>4345.343518089545</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -3807,47 +3810,47 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>6467.913509675973</v>
+        <v>4278.588470949546</v>
       </c>
       <c r="B417">
-        <v>0.01525600565752816</v>
+        <v>0.01536243265051418</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>6266.513482955972</v>
+        <v>4144.416460689545</v>
       </c>
       <c r="B418">
-        <v>0.04591928933877054</v>
+        <v>0.04623962560463779</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>6565.155171915972</v>
+        <v>4343.370534369546</v>
       </c>
       <c r="B419">
-        <v>0.0004509000005856745</v>
+        <v>0.000454045511427581</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>6406.941424555973</v>
+        <v>4237.969075989545</v>
       </c>
       <c r="B420">
-        <v>0.02453904485627989</v>
+        <v>0.02471023099853975</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>6542.823009835973</v>
+        <v>4328.492924229546</v>
       </c>
       <c r="B421">
-        <v>0.00385098604936529</v>
+        <v>0.003877850805086069</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>6811.955808075973</v>
+        <v>4507.788275649546</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -3858,7 +3861,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>7299.414983115972</v>
+        <v>4832.531913969546</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -3866,15 +3869,15 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>7241.461941355972</v>
+        <v>4793.923795389544</v>
       </c>
       <c r="B424">
-        <v>0.007939409102517003</v>
+        <v>0.007989211301097754</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>7459.815689355972</v>
+        <v>4939.390316889545</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>7543.459339435973</v>
+        <v>4995.113431029546</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>7951.438023915975</v>
+        <v>5266.907437869546</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -3901,7 +3904,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>7964.600833995974</v>
+        <v>5275.676457009546</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>8076.291752715972</v>
+        <v>5350.084565769544</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>8855.451280395975</v>
+        <v>5869.157983209547</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>9080.365905035973</v>
+        <v>6018.995338329546</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -3933,15 +3936,15 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>8803.550010955973</v>
+        <v>5834.581534689545</v>
       </c>
       <c r="B432">
-        <v>0.03048510346113675</v>
+        <v>0.0306386353991065</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>9340.249974795972</v>
+        <v>6192.129218409546</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -3952,7 +3955,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>10112.07128375597</v>
+        <v>6706.313939589545</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>10840.94444279597</v>
+        <v>7191.886749909545</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>11155.85831015597</v>
+        <v>7401.681293289545</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -3976,247 +3979,247 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>11020.48309207597</v>
+        <v>7311.494785149545</v>
       </c>
       <c r="B437">
-        <v>0.01213489937898893</v>
+        <v>0.01218459760240731</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>10489.97449367597</v>
+        <v>6958.071767949545</v>
       </c>
       <c r="B438">
-        <v>0.05968916043634209</v>
+        <v>0.05993361612883574</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>9738.484512075973</v>
+        <v>6457.431707649544</v>
       </c>
       <c r="B439">
-        <v>0.1270519720378362</v>
+        <v>0.1275723106986609</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>9368.089222315972</v>
+        <v>6210.675630069545</v>
       </c>
       <c r="B440">
-        <v>0.1602538359789374</v>
+        <v>0.1609101521703967</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>10276.85138199597</v>
+        <v>6816.089878509545</v>
       </c>
       <c r="B441">
-        <v>0.07879330336777213</v>
+        <v>0.07911599967306127</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>10762.17560343597</v>
+        <v>7139.411218029545</v>
       </c>
       <c r="B442">
-        <v>0.03528932474533164</v>
+        <v>0.03543385142748268</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>10104.64274007597</v>
+        <v>6701.365069149546</v>
       </c>
       <c r="B443">
-        <v>0.09422991408227233</v>
+        <v>0.09461583069983226</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>9900.114185195973</v>
+        <v>6565.108844109545</v>
       </c>
       <c r="B444">
-        <v>0.1125636495236594</v>
+        <v>0.113024651566455</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>9854.576719755973</v>
+        <v>6534.771940089546</v>
       </c>
       <c r="B445">
-        <v>0.1166455824573669</v>
+        <v>0.1171233019700469</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>10074.27439367597</v>
+        <v>6681.133780449543</v>
       </c>
       <c r="B446">
-        <v>0.09695210233132479</v>
+        <v>0.09734916761320955</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>9871.787730315971</v>
+        <v>6546.237856569545</v>
       </c>
       <c r="B447">
-        <v>0.1151028046556508</v>
+        <v>0.1155742057545162</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>9755.936389195973</v>
+        <v>6469.058088609545</v>
       </c>
       <c r="B448">
-        <v>0.1254876031981825</v>
+        <v>0.1260015350195539</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>8491.907001995973</v>
+        <v>5626.966026009545</v>
       </c>
       <c r="B449">
-        <v>0.2387939353563513</v>
+        <v>0.2397719108615198</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>9065.344590475972</v>
+        <v>6008.988189849544</v>
       </c>
       <c r="B450">
-        <v>0.1873915624920457</v>
+        <v>0.1881590206677276</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>8827.989755435972</v>
+        <v>5850.863209029545</v>
       </c>
       <c r="B451">
-        <v>0.2086678129105293</v>
+        <v>0.20952240751922</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>8877.777968235972</v>
+        <v>5884.031946429546</v>
       </c>
       <c r="B452">
-        <v>0.2042048472277657</v>
+        <v>0.2050411638550174</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>8876.217809835975</v>
+        <v>5882.992574229545</v>
       </c>
       <c r="B453">
-        <v>0.2043446982689515</v>
+        <v>0.2051815876531811</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>8934.674481675973</v>
+        <v>5921.936209449545</v>
       </c>
       <c r="B454">
-        <v>0.1991047005731417</v>
+        <v>0.1999201296577785</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>8359.435868235973</v>
+        <v>5538.714208929545</v>
       </c>
       <c r="B455">
-        <v>0.250668515516571</v>
+        <v>0.2516951231133105</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>9180.218779755973</v>
+        <v>6085.516982589546</v>
       </c>
       <c r="B456">
-        <v>0.177094354864783</v>
+        <v>0.1778196410446974</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>9423.094385835971</v>
+        <v>6247.319882229544</v>
       </c>
       <c r="B457">
-        <v>0.1553232280426637</v>
+        <v>0.1559593510337387</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>9426.017629995971</v>
+        <v>6249.267337509544</v>
       </c>
       <c r="B458">
-        <v>0.1550611913549677</v>
+        <v>0.1556962411803374</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>9105.801961195972</v>
+        <v>6035.940752109545</v>
       </c>
       <c r="B459">
-        <v>0.1837650041766565</v>
+        <v>0.1845176098595593</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>9224.426004875973</v>
+        <v>6114.967685049545</v>
       </c>
       <c r="B460">
-        <v>0.1731316633451394</v>
+        <v>0.1738407204058556</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>9755.39170231597</v>
+        <v>6468.695220069545</v>
       </c>
       <c r="B461">
-        <v>0.125536428386246</v>
+        <v>0.1260505601701408</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>10344.59236487597</v>
+        <v>6861.218690049547</v>
       </c>
       <c r="B462">
-        <v>0.07272106930055255</v>
+        <v>0.07301889689981489</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>10157.86330135597</v>
+        <v>6736.820425389546</v>
       </c>
       <c r="B463">
-        <v>0.08945927610889914</v>
+        <v>0.08982565467966985</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>10528.35439031597</v>
+        <v>6983.640324069545</v>
       </c>
       <c r="B464">
-        <v>0.05624882482316396</v>
+        <v>0.05647919069401164</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>10773.79194071597</v>
+        <v>7147.149982269546</v>
       </c>
       <c r="B465">
-        <v>0.03424804787025459</v>
+        <v>0.03438831002501552</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>10666.70212071597</v>
+        <v>7075.807109769545</v>
       </c>
       <c r="B466">
-        <v>0.04384747240780984</v>
+        <v>0.04402704880247155</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>12741.21463687597</v>
+        <v>8457.840266049547</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -4227,7 +4230,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>12753.68221847597</v>
+        <v>8466.146126349544</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -4235,15 +4238,15 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>12312.22855639597</v>
+        <v>8172.051203709545</v>
       </c>
       <c r="B469">
-        <v>0.03461382011231828</v>
+        <v>0.03473775650111621</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>13177.68674055597</v>
+        <v>8748.616491489545</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -4254,23 +4257,23 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>12991.03979063597</v>
+        <v>8624.272930629546</v>
       </c>
       <c r="B471">
-        <v>0.01416386302047767</v>
+        <v>0.01421293995238648</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>12954.38701671597</v>
+        <v>8599.854977769548</v>
       </c>
       <c r="B472">
-        <v>0.01694529003734513</v>
+        <v>0.01700400444626982</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>13344.18027591597</v>
+        <v>8859.533916369548</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -4281,15 +4284,15 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>13161.69922263597</v>
+        <v>8737.965661629545</v>
       </c>
       <c r="B474">
-        <v>0.01367495413782338</v>
+        <v>0.01372174381717572</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>13496.27108583597</v>
+        <v>8960.856294729543</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -4300,7 +4303,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>14313.64628295597</v>
+        <v>9505.388860689545</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -4308,15 +4311,15 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>14158.42147063597</v>
+        <v>9401.978620629545</v>
       </c>
       <c r="B477">
-        <v>0.01084453319940115</v>
+        <v>0.01087911726448809</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>15349.99929143597</v>
+        <v>10195.80369702955</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -4327,15 +4330,15 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>15332.26001671597</v>
+        <v>10183.98585276955</v>
       </c>
       <c r="B479">
-        <v>0.001155653129567003</v>
+        <v>0.001159089034191929</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>15761.27073127597</v>
+        <v>10469.79132624955</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -4346,143 +4349,143 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>14852.30055047597</v>
+        <v>9864.238494849546</v>
       </c>
       <c r="B481">
-        <v>0.05767112286170417</v>
+        <v>0.05783809939762374</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>13429.90961143597</v>
+        <v>8916.646507029543</v>
       </c>
       <c r="B482">
-        <v>0.1479170784887128</v>
+        <v>0.1483453462272935</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>13644.82827383597</v>
+        <v>9059.824586229544</v>
       </c>
       <c r="B483">
-        <v>0.1342812069867073</v>
+        <v>0.1346699944711386</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>12932.50100519597</v>
+        <v>8585.274591609546</v>
       </c>
       <c r="B484">
-        <v>0.1794759936752252</v>
+        <v>0.1799956346708836</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>12714.39086087597</v>
+        <v>8439.970358049546</v>
       </c>
       <c r="B485">
-        <v>0.1933143540484908</v>
+        <v>0.1938740615690108</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>12667.73938759597</v>
+        <v>8408.891305809546</v>
       </c>
       <c r="B486">
-        <v>0.196274234255829</v>
+        <v>0.1968425115859734</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>12402.02798935597</v>
+        <v>8231.875279389544</v>
       </c>
       <c r="B487">
-        <v>0.2131327352466617</v>
+        <v>0.213749823384652</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>13620.42137479597</v>
+        <v>9043.564793409545</v>
       </c>
       <c r="B488">
-        <v>0.1358297432345853</v>
+        <v>0.1362230142318318</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>13306.64341223597</v>
+        <v>8834.526985929546</v>
       </c>
       <c r="B489">
-        <v>0.1557379072341637</v>
+        <v>0.156188818799102</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>13829.08298087597</v>
+        <v>9182.574443049547</v>
       </c>
       <c r="B490">
-        <v>0.1225908610633691</v>
+        <v>0.1229458012188579</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>13288.42514151597</v>
+        <v>8822.390036169543</v>
       </c>
       <c r="B491">
-        <v>0.1568937956793671</v>
+        <v>0.1573480539148557</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>13391.78426695597</v>
+        <v>8891.247532689544</v>
       </c>
       <c r="B492">
-        <v>0.1503360042929849</v>
+        <v>0.1507712756033948</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>13427.50094583597</v>
+        <v>8915.041862229546</v>
       </c>
       <c r="B493">
-        <v>0.1480699002783431</v>
+        <v>0.1484986104853856</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>13999.43585543597</v>
+        <v>9296.062946529546</v>
       </c>
       <c r="B494">
-        <v>0.1117825399917717</v>
+        <v>0.1121061865652722</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>14383.56875047597</v>
+        <v>9551.970969849544</v>
       </c>
       <c r="B495">
-        <v>0.08741059044599409</v>
+        <v>0.0876636723502664</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>15070.40248343597</v>
+        <v>10009.53725802955</v>
       </c>
       <c r="B496">
-        <v>0.04383328347181237</v>
+        <v>0.04396019499128545</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>15335.10662151597</v>
+        <v>10185.88225116955</v>
       </c>
       <c r="B497">
-        <v>0.02703868977482493</v>
+        <v>0.02711697551871839</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>15861.06338935597</v>
+        <v>10536.27285438955</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -4493,15 +4496,15 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>15710.12764407597</v>
+        <v>10435.71997614955</v>
       </c>
       <c r="B499">
-        <v>0.009516117650805622</v>
+        <v>0.009543496037890509</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>16795.85282311598</v>
+        <v>11159.02638396955</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -4512,247 +4515,247 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>16188.19028615597</v>
+        <v>10754.20367628954</v>
       </c>
       <c r="B501">
-        <v>0.03617932017859105</v>
+        <v>0.03627760108727296</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>15267.66672183597</v>
+        <v>10140.95402022955</v>
       </c>
       <c r="B502">
-        <v>0.0909859188082891</v>
+        <v>0.09123308151708531</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>15622.27430343597</v>
+        <v>10377.19238052955</v>
       </c>
       <c r="B503">
-        <v>0.06987311284752507</v>
+        <v>0.07006292274415082</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>16173.04306407597</v>
+        <v>10744.11264864955</v>
       </c>
       <c r="B504">
-        <v>0.03708116316563803</v>
+        <v>0.03718189392544502</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>15826.84938935597</v>
+        <v>10513.47960438955</v>
       </c>
       <c r="B505">
-        <v>0.0576930176731707</v>
+        <v>0.05784974041349655</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>15931.36631655597</v>
+        <v>10583.10842448954</v>
       </c>
       <c r="B506">
-        <v>0.05147023587693145</v>
+        <v>0.05161005446741607</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>15951.14748279597</v>
+        <v>10596.28656990955</v>
       </c>
       <c r="B507">
-        <v>0.05029249477331954</v>
+        <v>0.05042911403708117</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>15745.66641015597</v>
+        <v>10459.39578078955</v>
       </c>
       <c r="B508">
-        <v>0.06252653104429695</v>
+        <v>0.06269638399502764</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>14851.09074343597</v>
+        <v>9863.432525529546</v>
       </c>
       <c r="B509">
-        <v>0.1157882305924618</v>
+        <v>0.1161027686341148</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>14921.60990311597</v>
+        <v>9910.412148969544</v>
       </c>
       <c r="B510">
-        <v>0.1115896251139151</v>
+        <v>0.1118927576686881</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>14363.99286823597</v>
+        <v>9538.929583929546</v>
       </c>
       <c r="B511">
-        <v>0.1447893108192194</v>
+        <v>0.1451826301233002</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>14087.57933079597</v>
+        <v>9354.783828909543</v>
       </c>
       <c r="B512">
-        <v>0.1612465601385024</v>
+        <v>0.1616845854627497</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>15109.02050951597</v>
+        <v>10035.26445516954</v>
       </c>
       <c r="B513">
-        <v>0.1004314774227143</v>
+        <v>0.1007042989354642</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514">
-        <v>15325.67724311597</v>
+        <v>10179.60043146955</v>
       </c>
       <c r="B514">
-        <v>0.08753205898402572</v>
+        <v>0.08776983930309457</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>15314.86288199597</v>
+        <v>10172.39594100954</v>
       </c>
       <c r="B515">
-        <v>0.08817592989870282</v>
+        <v>0.08841545928929273</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516">
-        <v>15823.37598407597</v>
+        <v>10511.16563364955</v>
       </c>
       <c r="B516">
-        <v>0.0578998190375658</v>
+        <v>0.05805710355257176</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>16127.49738727597</v>
+        <v>10713.77027424955</v>
       </c>
       <c r="B517">
-        <v>0.03979288476022791</v>
+        <v>0.03990098189566327</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>16125.84964103597</v>
+        <v>10712.67255132954</v>
       </c>
       <c r="B518">
-        <v>0.03989098911118605</v>
+        <v>0.03999935274650923</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>16120.34529271597</v>
+        <v>10709.00557326955</v>
       </c>
       <c r="B519">
-        <v>0.04021870979187836</v>
+        <v>0.04032796367848668</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>16183.18135655597</v>
+        <v>10750.86674448955</v>
       </c>
       <c r="B520">
-        <v>0.03647754436838069</v>
+        <v>0.03657663540130507</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>15663.65682071598</v>
+        <v>10404.76127226955</v>
       </c>
       <c r="B521">
-        <v>0.06740925955494015</v>
+        <v>0.0675923764087103</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>15978.44478055598</v>
+        <v>10614.47193648955</v>
       </c>
       <c r="B522">
-        <v>0.04866725442098474</v>
+        <v>0.04879945872896896</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>16232.44404231597</v>
+        <v>10783.68537756955</v>
       </c>
       <c r="B523">
-        <v>0.03354451761000121</v>
+        <v>0.03363564109313266</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>15920.72986823597</v>
+        <v>10576.02245892954</v>
       </c>
       <c r="B524">
-        <v>0.0521035141291295</v>
+        <v>0.05224505301623017</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>15362.98692583597</v>
+        <v>10204.45601472955</v>
       </c>
       <c r="B525">
-        <v>0.08531069618018849</v>
+        <v>0.08554244218037554</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526">
-        <v>15944.37037367597</v>
+        <v>10591.77168294955</v>
       </c>
       <c r="B526">
-        <v>0.05069599373174538</v>
+        <v>0.05083370909803453</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>15962.16712791597</v>
+        <v>10603.62781986954</v>
       </c>
       <c r="B527">
-        <v>0.04963640155578242</v>
+        <v>0.04977123854621024</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528">
-        <v>16407.38432999597</v>
+        <v>10900.23000000955</v>
       </c>
       <c r="B528">
-        <v>0.02312883407654998</v>
+        <v>0.02319166341713941</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>16471.24133959597</v>
+        <v>10942.77132180955</v>
       </c>
       <c r="B529">
-        <v>0.01932688306682717</v>
+        <v>0.01937938443004839</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>16432.25653943597</v>
+        <v>10916.79978102955</v>
       </c>
       <c r="B530">
-        <v>0.02164797986200451</v>
+        <v>0.02170678647090296</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>17449.09661943597</v>
+        <v>11594.21517102955</v>
       </c>
       <c r="B531">
         <v>0</v>
@@ -4763,1518 +4766,1512 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>17280.63509479597</v>
+        <v>11481.98667840955</v>
       </c>
       <c r="B532">
-        <v>0.00965445537463272</v>
+        <v>0.009679697242502949</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>17335.50066519597</v>
+        <v>11518.53793410955</v>
       </c>
       <c r="B533">
-        <v>0.006510133831998277</v>
+        <v>0.006527154775348265</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>16835.92699703597</v>
+        <v>11185.72366182955</v>
       </c>
       <c r="B534">
-        <v>0.03514047952012644</v>
+        <v>0.03523235537500613</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>16472.39914135597</v>
+        <v>10943.54264538955</v>
       </c>
       <c r="B535">
-        <v>0.05597409994234825</v>
+        <v>0.05612044593288512</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>15473.70198899991</v>
+        <v>10280.36341012455</v>
       </c>
       <c r="B536">
-        <v>0.1132089914749934</v>
+        <v>0.1133195944291179</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>15471.99683486991</v>
+        <v>10279.51109149455</v>
       </c>
       <c r="B537">
-        <v>0.1133067131030633</v>
+        <v>0.1133931068331425</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>15474.60918100991</v>
+        <v>10280.81686863455</v>
       </c>
       <c r="B538">
-        <v>0.1131570007026466</v>
+        <v>0.1132804836740291</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>15465.90849737991</v>
+        <v>10276.46784550455</v>
       </c>
       <c r="B539">
-        <v>0.1136556330284202</v>
+        <v>0.1136555865219447</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>15458.99158304991</v>
+        <v>10273.01043667455</v>
       </c>
       <c r="B540">
-        <v>0.1140520383255458</v>
+        <v>0.113953787717886</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>15457.12494286991</v>
+        <v>10272.07739949455</v>
       </c>
       <c r="B541">
-        <v>0.1141590146476278</v>
+        <v>0.1140342620894788</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>15453.57093016991</v>
+        <v>10270.30093179455</v>
       </c>
       <c r="B542">
-        <v>0.114362693541585</v>
+        <v>0.1141874822664199</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>15450.33438023991</v>
+        <v>10268.68314736455</v>
       </c>
       <c r="B543">
-        <v>0.1145481787847806</v>
+        <v>0.1143270160258107</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>15466.61369161991</v>
+        <v>10276.82033574455</v>
       </c>
       <c r="B544">
-        <v>0.1136152186588182</v>
+        <v>0.1136251842709257</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545">
-        <v>15469.94759503991</v>
+        <v>10278.48678216455</v>
       </c>
       <c r="B545">
-        <v>0.1134241541302232</v>
+        <v>0.11348145341934</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>15468.60626345988</v>
+        <v>10278.21346041455</v>
       </c>
       <c r="B546">
-        <v>0.1135010252490717</v>
+        <v>0.1135050273953243</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>15454.84009270958</v>
+        <v>10276.08423863455</v>
       </c>
       <c r="B547">
-        <v>0.1142899583984799</v>
+        <v>0.1136886725794607</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>15513.44043022458</v>
+        <v>10290.46029618455</v>
       </c>
       <c r="B548">
-        <v>0.110931599006411</v>
+        <v>0.1124487389282445</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549">
-        <v>15515.10342617983</v>
+        <v>10290.9092279008</v>
       </c>
       <c r="B549">
-        <v>0.1108362934446665</v>
+        <v>0.1124100186087035</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>15489.17590199608</v>
+        <v>10282.3532132376</v>
       </c>
       <c r="B550">
-        <v>0.1123221883737409</v>
+        <v>0.1131479740922776</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551">
-        <v>15503.49731563929</v>
+        <v>10287.38156208831</v>
       </c>
       <c r="B551">
-        <v>0.111501434500027</v>
+        <v>0.1127142794629702</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
-        <v>15392.06540230172</v>
+        <v>10245.98517235422</v>
       </c>
       <c r="B552">
-        <v>0.1178875481062437</v>
+        <v>0.1162847142982256</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>15526.31943087067</v>
+        <v>10297.82836696122</v>
       </c>
       <c r="B553">
-        <v>0.1101935091827955</v>
+        <v>0.1118132434964296</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>15489.4372944695</v>
+        <v>10283.14893613369</v>
       </c>
       <c r="B554">
-        <v>0.1123072080868458</v>
+        <v>0.1130793430651359</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>15521.8506688395</v>
+        <v>10297.54944916529</v>
       </c>
       <c r="B555">
-        <v>0.1104496119558291</v>
+        <v>0.1118373001308645</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556">
-        <v>15576.3017031395</v>
+        <v>10324.47897103406</v>
       </c>
       <c r="B556">
-        <v>0.1073290472935102</v>
+        <v>0.1095146313282311</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>15552.13853841911</v>
+        <v>10312.47631401713</v>
       </c>
       <c r="B557">
-        <v>0.1087138275630788</v>
+        <v>0.1105498594001509</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>15450.21717272794</v>
+        <v>10261.82480953696</v>
       </c>
       <c r="B558">
-        <v>0.1145548958953868</v>
+        <v>0.1149185470373041</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>15488.87073287936</v>
+        <v>10281.04232088074</v>
       </c>
       <c r="B559">
-        <v>0.1123396774806773</v>
+        <v>0.113261038438378</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>15168.60988287936</v>
+        <v>10109.42433342582</v>
       </c>
       <c r="B560">
-        <v>0.1306936849679917</v>
+        <v>0.1280630741883908</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>15170.41395787936</v>
+        <v>10110.39052462582</v>
       </c>
       <c r="B561">
-        <v>0.1305902942286687</v>
+        <v>0.1279797402855999</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>15178.17079787936</v>
+        <v>10114.54478126582</v>
       </c>
       <c r="B562">
-        <v>0.1301457531633531</v>
+        <v>0.1276214360296654</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>15038.10086787936</v>
+        <v>10039.52886798582</v>
       </c>
       <c r="B563">
-        <v>0.138173098822267</v>
+        <v>0.1340915517014396</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>15023.01807287936</v>
+        <v>10031.45111966582</v>
       </c>
       <c r="B564">
-        <v>0.139037487124364</v>
+        <v>0.1347882567565764</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>14891.36564287936</v>
+        <v>9960.943286385824</v>
       </c>
       <c r="B565">
-        <v>0.1465824295859329</v>
+        <v>0.1408695509399186</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>14860.04981287936</v>
+        <v>9944.171766705824</v>
       </c>
       <c r="B566">
-        <v>0.1483771259351478</v>
+        <v>0.142316092981152</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>14579.78391787936</v>
+        <v>9794.072440785823</v>
       </c>
       <c r="B567">
-        <v>0.1644390402630117</v>
+        <v>0.1552621461383379</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>14754.34694287936</v>
+        <v>9887.561491185823</v>
       </c>
       <c r="B568">
-        <v>0.1544349106047713</v>
+        <v>0.1471987240764807</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>14605.35127787936</v>
+        <v>9807.765307345824</v>
       </c>
       <c r="B569">
-        <v>0.1629737861838108</v>
+        <v>0.1540811376476369</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>14614.34753787936</v>
+        <v>9812.583348305823</v>
       </c>
       <c r="B570">
-        <v>0.162458214507167</v>
+        <v>0.153665582054703</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>14487.19869787936</v>
+        <v>9744.487459665823</v>
       </c>
       <c r="B571">
-        <v>0.169745058220232</v>
+        <v>0.1595388462330454</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>14675.61601787936</v>
+        <v>9845.396322385825</v>
       </c>
       <c r="B572">
-        <v>0.1589469450508586</v>
+        <v>0.1508354660359844</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>14654.15958287936</v>
+        <v>9833.905104625823</v>
       </c>
       <c r="B573">
-        <v>0.1601766038388156</v>
+        <v>0.1518265825186865</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>14695.89172787936</v>
+        <v>9856.255190545824</v>
       </c>
       <c r="B574">
-        <v>0.1577849530897725</v>
+        <v>0.1498988896485518</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>14663.49891287936</v>
+        <v>9838.906880305824</v>
       </c>
       <c r="B575">
-        <v>0.1596413709723991</v>
+        <v>0.1513951798229267</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>14518.14757379074</v>
+        <v>9769.056251985823</v>
       </c>
       <c r="B576">
-        <v>0.1679713918473319</v>
+        <v>0.157419790138469</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>14458.49198563445</v>
+        <v>9743.266622865824</v>
       </c>
       <c r="B577">
-        <v>0.1713902271863397</v>
+        <v>0.1596441432955882</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>14516.71053231445</v>
+        <v>9768.514795025823</v>
       </c>
       <c r="B578">
-        <v>0.1680537480579501</v>
+        <v>0.1574664907518363</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>14607.31754237445</v>
+        <v>9807.809169745824</v>
       </c>
       <c r="B579">
-        <v>0.1628611004363492</v>
+        <v>0.1540773545196413</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>14575.81124629445</v>
+        <v>9794.145544785824</v>
       </c>
       <c r="B580">
-        <v>0.1646667123122618</v>
+        <v>0.1552558409250119</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>14625.00977280445</v>
+        <v>9815.481921905823</v>
       </c>
       <c r="B581">
-        <v>0.1618471665453365</v>
+        <v>0.1534155803463303</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>14727.94674835085</v>
+        <v>9856.374106385823</v>
       </c>
       <c r="B582">
-        <v>0.1559478940619839</v>
+        <v>0.1498886331682083</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>14566.95854966253</v>
+        <v>9797.457399665824</v>
       </c>
       <c r="B583">
-        <v>0.1651740564358571</v>
+        <v>0.1549701937439699</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>14472.18136155213</v>
+        <v>9761.757714910624</v>
       </c>
       <c r="B584">
-        <v>0.1706056951147807</v>
+        <v>0.1580492882948803</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>14493.89536115188</v>
+        <v>9770.099584663534</v>
       </c>
       <c r="B585">
-        <v>0.1693612754136734</v>
+        <v>0.1573298027902681</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>14320.12576307188</v>
+        <v>9696.843907706383</v>
       </c>
       <c r="B586">
-        <v>0.1793199341264943</v>
+        <v>0.1636480982398985</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>14306.80522415188</v>
+        <v>9691.235983866383</v>
       </c>
       <c r="B587">
-        <v>0.1800833283130542</v>
+        <v>0.1641317811591194</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>14617.18199111188</v>
+        <v>9821.904065786384</v>
       </c>
       <c r="B588">
-        <v>0.1622957732476371</v>
+        <v>0.1528616710229456</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>14562.00918329188</v>
+        <v>9798.676409146385</v>
       </c>
       <c r="B589">
-        <v>0.1654577024307529</v>
+        <v>0.1548650542875617</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590">
-        <v>14616.17226010554</v>
+        <v>9820.075735226384</v>
       </c>
       <c r="B590">
-        <v>0.1623536404844553</v>
+        <v>0.1530193643668269</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>14458.5409187656</v>
+        <v>9761.842086266384</v>
       </c>
       <c r="B591">
-        <v>0.1713874228502633</v>
+        <v>0.1580420112731487</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>14783.9866346772</v>
+        <v>9875.137277946384</v>
       </c>
       <c r="B592">
-        <v>0.1527362729936513</v>
+        <v>0.1482703113341058</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593">
-        <v>14931.56433537576</v>
+        <v>9927.605387555664</v>
       </c>
       <c r="B593">
-        <v>0.144278660320788</v>
+        <v>0.143744941670415</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594">
-        <v>14892.76968044168</v>
+        <v>9913.514297713624</v>
       </c>
       <c r="B594">
-        <v>0.1465019648150085</v>
+        <v>0.144960296882836</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595">
-        <v>14697.60210139008</v>
+        <v>9841.517763322823</v>
       </c>
       <c r="B595">
-        <v>0.1576869323413049</v>
+        <v>0.1511699914010728</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>14668.27192593308</v>
+        <v>9830.502544963823</v>
       </c>
       <c r="B596">
-        <v>0.1593678317079994</v>
+        <v>0.1521200529788951</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597">
-        <v>14397.62376875799</v>
+        <v>9727.583090137763</v>
       </c>
       <c r="B597">
-        <v>0.1748785577402929</v>
+        <v>0.1609968465615452</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598">
-        <v>14357.63321951799</v>
+        <v>9711.349934311524</v>
       </c>
       <c r="B598">
-        <v>0.1771703984075889</v>
+        <v>0.1623969547695421</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599">
-        <v>14371.48690139799</v>
+        <v>9716.938588551524</v>
       </c>
       <c r="B599">
-        <v>0.1763764500340914</v>
+        <v>0.1619149338515619</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600">
-        <v>13896.62232968799</v>
+        <v>9525.375513471525</v>
       </c>
       <c r="B600">
-        <v>0.2035907283469907</v>
+        <v>0.1784372315883381</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601">
-        <v>14003.77658519799</v>
+        <v>9568.602150951523</v>
       </c>
       <c r="B601">
-        <v>0.197449765416529</v>
+        <v>0.1747089380520919</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602">
-        <v>14142.80239946799</v>
+        <v>9624.685956911524</v>
       </c>
       <c r="B602">
-        <v>0.189482257567719</v>
+        <v>0.1698717149082487</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>14259.99712400799</v>
+        <v>9671.962976831523</v>
       </c>
       <c r="B603">
-        <v>0.1827658798035281</v>
+        <v>0.1657940762563347</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604">
-        <v>13893.70977272799</v>
+        <v>9524.200571391524</v>
       </c>
       <c r="B604">
-        <v>0.2037576456965544</v>
+        <v>0.178538570235471</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>13976.89849112799</v>
+        <v>9557.759374591524</v>
       </c>
       <c r="B605">
-        <v>0.1989901370848285</v>
+        <v>0.1756441265232436</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606">
-        <v>14264.42901725799</v>
+        <v>9673.750827831524</v>
       </c>
       <c r="B606">
-        <v>0.182511889964016</v>
+        <v>0.1656398742708076</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607">
-        <v>14238.60285690254</v>
+        <v>9663.890049631524</v>
       </c>
       <c r="B607">
-        <v>0.1839919757769791</v>
+        <v>0.1664903654903115</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608">
-        <v>14423.19058036883</v>
+        <v>9731.892702271523</v>
       </c>
       <c r="B608">
-        <v>0.1734133350890318</v>
+        <v>0.1606251429084572</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609">
-        <v>14305.17457836647</v>
+        <v>9687.805476171205</v>
       </c>
       <c r="B609">
-        <v>0.1801767799008913</v>
+        <v>0.1644276621346382</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610">
-        <v>14086.89489843147</v>
+        <v>9605.182860531204</v>
       </c>
       <c r="B610">
-        <v>0.1926862916937176</v>
+        <v>0.1715538551905037</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611">
-        <v>14128.2829735235</v>
+        <v>9621.024411888384</v>
       </c>
       <c r="B611">
-        <v>0.1903143594387303</v>
+        <v>0.1701875228322115</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612">
-        <v>14263.4304511591</v>
+        <v>9673.403653426183</v>
       </c>
       <c r="B612">
-        <v>0.1825691173449325</v>
+        <v>0.1656698180315727</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613">
-        <v>14358.1069089191</v>
+        <v>9711.776736338583</v>
       </c>
       <c r="B613">
-        <v>0.1771432514777826</v>
+        <v>0.1623601431336734</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614">
-        <v>14113.3003766791</v>
+        <v>9607.717594633934</v>
       </c>
       <c r="B614">
-        <v>0.1911730054289023</v>
+        <v>0.1713352346055533</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615">
-        <v>14194.5570009191</v>
+        <v>9643.680476053234</v>
       </c>
       <c r="B615">
-        <v>0.186516224277866</v>
+        <v>0.168233439366393</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616">
-        <v>14139.6738536391</v>
+        <v>9619.323198433234</v>
       </c>
       <c r="B616">
-        <v>0.1896615531437091</v>
+        <v>0.1703342523374047</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617">
-        <v>13982.44043476193</v>
+        <v>9552.190106653234</v>
       </c>
       <c r="B617">
-        <v>0.1986725307493941</v>
+        <v>0.1761244753744712</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618">
-        <v>14132.10341466193</v>
+        <v>9616.171432453233</v>
       </c>
       <c r="B618">
-        <v>0.1900954116489535</v>
+        <v>0.1706060918654373</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619">
-        <v>14082.28367960193</v>
+        <v>9594.873361933234</v>
       </c>
       <c r="B619">
-        <v>0.1929505586027795</v>
+        <v>0.1724430485033662</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620">
-        <v>14202.65722748193</v>
+        <v>9646.333376893233</v>
       </c>
       <c r="B620">
-        <v>0.1860520038807019</v>
+        <v>0.1680046269111414</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621">
-        <v>14009.04557885093</v>
+        <v>9566.544900013234</v>
       </c>
       <c r="B621">
-        <v>0.197147801723631</v>
+        <v>0.1748863757577013</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622">
-        <v>13950.17152977093</v>
+        <v>9542.257722133234</v>
       </c>
       <c r="B622">
-        <v>0.200521847404278</v>
+        <v>0.1769811426325377</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623">
-        <v>13965.06079427093</v>
+        <v>9548.399956633233</v>
       </c>
       <c r="B623">
-        <v>0.1996685502494319</v>
+        <v>0.1764513754676721</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624">
-        <v>13809.97817471093</v>
+        <v>9484.424075473235</v>
       </c>
       <c r="B624">
-        <v>0.2085562664987223</v>
+        <v>0.1819692893770029</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625">
-        <v>13728.12763957093</v>
+        <v>9450.658459933235</v>
       </c>
       <c r="B625">
-        <v>0.2132470844204265</v>
+        <v>0.1848815706346744</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626">
-        <v>13750.59764317093</v>
+        <v>9459.927959533234</v>
       </c>
       <c r="B626">
-        <v>0.2119593384648581</v>
+        <v>0.1840820771404393</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627">
-        <v>13793.24280639093</v>
+        <v>9477.520271953234</v>
       </c>
       <c r="B627">
-        <v>0.2095153630459532</v>
+        <v>0.1825647418003158</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628">
-        <v>13638.34331241093</v>
+        <v>9413.619935173234</v>
       </c>
       <c r="B628">
-        <v>0.2183925844493503</v>
+        <v>0.1880761400137686</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629">
-        <v>13465.23189701093</v>
+        <v>9342.206675773234</v>
       </c>
       <c r="B629">
-        <v>0.2283135230042538</v>
+        <v>0.1942355271172994</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630">
-        <v>13853.61650549093</v>
+        <v>9502.426097053234</v>
       </c>
       <c r="B630">
-        <v>0.2060553730867738</v>
+        <v>0.180416616659234</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631">
-        <v>13877.26115245093</v>
+        <v>9512.180169613233</v>
       </c>
       <c r="B631">
-        <v>0.2047003088404297</v>
+        <v>0.1795753287914384</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632">
-        <v>14107.42324661037</v>
+        <v>9603.803932693234</v>
       </c>
       <c r="B632">
-        <v>0.1915098211504785</v>
+        <v>0.1716727875906384</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633">
-        <v>14217.67957123777</v>
+        <v>9648.013092156934</v>
       </c>
       <c r="B633">
-        <v>0.1851910800126371</v>
+        <v>0.1678597516229978</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634">
-        <v>14422.69649074148</v>
+        <v>9730.873977924544</v>
       </c>
       <c r="B634">
-        <v>0.1734416511467698</v>
+        <v>0.1607130077903791</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635">
-        <v>14772.22432973356</v>
+        <v>9873.152388870583</v>
       </c>
       <c r="B635">
-        <v>0.1534103654810836</v>
+        <v>0.1484415078356819</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636">
-        <v>15202.04614093195</v>
+        <v>10049.21303049544</v>
       </c>
       <c r="B636">
-        <v>0.1287774678261054</v>
+        <v>0.1332562935691066</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637">
-        <v>15313.46564348297</v>
+        <v>10095.09433015095</v>
       </c>
       <c r="B637">
-        <v>0.12239206547657</v>
+        <v>0.1292990356625815</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638">
-        <v>15312.64036596018</v>
+        <v>10094.73560678434</v>
       </c>
       <c r="B638">
-        <v>0.1224393617659303</v>
+        <v>0.1293299755202018</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639">
-        <v>15769.24350502015</v>
+        <v>10284.71631221857</v>
       </c>
       <c r="B639">
-        <v>0.09627163807120476</v>
+        <v>0.1129441570209097</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640">
-        <v>15610.24188075539</v>
+        <v>10218.24459891437</v>
       </c>
       <c r="B640">
-        <v>0.1053839507446099</v>
+        <v>0.1186773362248192</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641">
-        <v>15257.56415097939</v>
+        <v>10070.19257976229</v>
       </c>
       <c r="B641">
-        <v>0.1255957552562066</v>
+        <v>0.1314468093601823</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642">
-        <v>15101.74845801776</v>
+        <v>10004.49345443161</v>
       </c>
       <c r="B642">
-        <v>0.1345254836175058</v>
+        <v>0.1371133529219096</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643">
-        <v>14886.97323622674</v>
+        <v>9913.570278399535</v>
       </c>
       <c r="B643">
-        <v>0.1468341564660354</v>
+        <v>0.1449554685537869</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644">
-        <v>15232.79036018674</v>
+        <v>10063.77437354889</v>
       </c>
       <c r="B644">
-        <v>0.1270155302355632</v>
+        <v>0.1320003790601338</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645">
-        <v>15492.65101394674</v>
+        <v>10179.45815616925</v>
       </c>
       <c r="B645">
-        <v>0.1121230312467875</v>
+        <v>0.1220226633705527</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646">
-        <v>15942.99813966674</v>
+        <v>10380.11349564926</v>
       </c>
       <c r="B646">
-        <v>0.08631383690612604</v>
+        <v>0.1047161586593603</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647">
-        <v>16346.7148560336</v>
+        <v>10560.41830377268</v>
       </c>
       <c r="B647">
-        <v>0.06317701067541037</v>
+        <v>0.08916488541975753</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648">
-        <v>16161.96918029092</v>
+        <v>10477.70878096134</v>
       </c>
       <c r="B648">
-        <v>0.07376470353836895</v>
+        <v>0.09629857421121668</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649">
-        <v>16756.06222450936</v>
+        <v>10744.21786090774</v>
       </c>
       <c r="B649">
-        <v>0.03971749426584437</v>
+        <v>0.0733121903969568</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650">
-        <v>16591.48354937576</v>
+        <v>10670.22917292594</v>
       </c>
       <c r="B650">
-        <v>0.04914942525476906</v>
+        <v>0.07969370798054254</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651">
-        <v>16572.76583329076</v>
+        <v>10661.78921949094</v>
       </c>
       <c r="B651">
-        <v>0.05022212927453773</v>
+        <v>0.08042165319378025</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652">
-        <v>16289.39849737626</v>
+        <v>10533.91547953369</v>
       </c>
       <c r="B652">
-        <v>0.06646178580775131</v>
+        <v>0.09145075159077798</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653">
-        <v>17170.42549996872</v>
+        <v>10932.19028405995</v>
       </c>
       <c r="B653">
-        <v>0.01597051844832165</v>
+        <v>0.05709958606114141</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654">
-        <v>16977.66207984014</v>
+        <v>10844.89331405066</v>
       </c>
       <c r="B654">
-        <v>0.02701770469141163</v>
+        <v>0.06462894175460998</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655">
-        <v>16952.13864845914</v>
+        <v>10833.30760081516</v>
       </c>
       <c r="B655">
-        <v>0.02848044124091142</v>
+        <v>0.06562820846344675</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656">
-        <v>16660.56428364784</v>
+        <v>10700.84126449642</v>
       </c>
       <c r="B656">
-        <v>0.04519043896575203</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3">
+        <v>0.07705341787733899</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
       <c r="A657">
-        <v>16327.71050831094</v>
+        <v>10549.38532525362</v>
       </c>
       <c r="B657">
-        <v>0.0642661414273995</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3">
+        <v>0.09011647880976348</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
       <c r="A658">
-        <v>16330.28820821094</v>
+        <v>10550.47988966032</v>
       </c>
       <c r="B658">
-        <v>0.06411841458765422</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3">
+        <v>0.0900220727296146</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
       <c r="A659">
-        <v>16897.52845826094</v>
+        <v>10813.12228904032</v>
       </c>
       <c r="B659">
-        <v>0.03161012705727473</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3">
+        <v>0.06736918976119566</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
       <c r="A660">
-        <v>17604.56063051094</v>
+        <v>11145.81529735778</v>
       </c>
       <c r="B660">
-        <v>0</v>
-      </c>
-      <c r="C660" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3">
+        <v>0.03867444816723609</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
       <c r="A661">
-        <v>17464.19515071636</v>
+        <v>11079.68216116049</v>
       </c>
       <c r="B661">
-        <v>0.00797324527096166</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3">
+        <v>0.0443784251265853</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
       <c r="A662">
-        <v>17582.54707434296</v>
+        <v>11135.48178588973</v>
       </c>
       <c r="B662">
-        <v>0.001250446212774259</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3">
+        <v>0.03956571258795072</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
       <c r="A663">
-        <v>17654.26124568934</v>
+        <v>11169.31926466753</v>
       </c>
       <c r="B663">
-        <v>0</v>
-      </c>
-      <c r="C663" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3">
+        <v>0.03664723313257978</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
       <c r="A664">
-        <v>17123.99389728934</v>
+        <v>10918.86855348753</v>
       </c>
       <c r="B664">
-        <v>0.03003622417389318</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3">
+        <v>0.05824858410679667</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
       <c r="A665">
-        <v>17508.68790980581</v>
+        <v>11100.70286637277</v>
       </c>
       <c r="B665">
-        <v>0.008245790285848154</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3">
+        <v>0.04256539122112479</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
       <c r="A666">
-        <v>16869.07782972305</v>
+        <v>10798.12829549305</v>
       </c>
       <c r="B666">
-        <v>0.04447557476572461</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3">
+        <v>0.06866242033576153</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
       <c r="A667">
-        <v>17537.49008385305</v>
+        <v>11118.92714225687</v>
       </c>
       <c r="B667">
-        <v>0.006614332948358559</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3">
+        <v>0.04099354908991815</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
       <c r="A668">
-        <v>17485.07778080305</v>
+        <v>11093.31349656857</v>
       </c>
       <c r="B668">
-        <v>0.009583151768958853</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3">
+        <v>0.04320272369211997</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
       <c r="A669">
-        <v>17446.78722288305</v>
+        <v>11074.31632342017</v>
       </c>
       <c r="B669">
-        <v>0.01175206483686464</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3">
+        <v>0.04484122814181024</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
       <c r="A670">
-        <v>16903.38269633265</v>
+        <v>10809.79474926017</v>
       </c>
       <c r="B670">
-        <v>0.04253242539616509</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3">
+        <v>0.06765618976344367</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
       <c r="A671">
-        <v>16939.28766771265</v>
+        <v>10827.27914930017</v>
       </c>
       <c r="B671">
-        <v>0.0404986404147194</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3">
+        <v>0.06614816185624328</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
       <c r="A672">
-        <v>17459.58107524265</v>
+        <v>11080.64289604017</v>
       </c>
       <c r="B672">
-        <v>0.01102737564247991</v>
+        <v>0.04429556183092376</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673">
-        <v>17593.87687881409</v>
+        <v>11145.27500780017</v>
       </c>
       <c r="B673">
-        <v>0.003420384803130339</v>
+        <v>0.03872104809225385</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674">
-        <v>17825.93809631409</v>
+        <v>11258.20756217387</v>
       </c>
       <c r="B674">
-        <v>0</v>
-      </c>
-      <c r="C674" s="2">
-        <v>11</v>
+        <v>0.02898062558777215</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675">
-        <v>17799.66364413409</v>
+        <v>11245.40312533387</v>
       </c>
       <c r="B675">
-        <v>0.001473944991732812</v>
+        <v>0.03008500709623274</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676">
-        <v>18381.86628389045</v>
+        <v>11529.16618319205</v>
       </c>
       <c r="B676">
-        <v>0</v>
-      </c>
-      <c r="C676" s="2">
-        <v>2</v>
+        <v>0.005610469262294804</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677">
-        <v>18672.03988258445</v>
+        <v>11670.63762669749</v>
       </c>
       <c r="B677">
         <v>0</v>
+      </c>
+      <c r="C677" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678">
-        <v>16471.95509473807</v>
+        <v>10617.80051126256</v>
       </c>
       <c r="B678">
-        <v>0.1178277682396348</v>
+        <v>0.09021247588276493</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679">
-        <v>16356.83742466982</v>
+        <v>10550.95504491282</v>
       </c>
       <c r="B679">
-        <v>0.1239930116084443</v>
+        <v>0.09594013777133437</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680">
-        <v>16405.70854630982</v>
+        <v>10578.73844445463</v>
       </c>
       <c r="B680">
-        <v>0.1213756692105427</v>
+        <v>0.09355951381311511</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681">
-        <v>16192.57051929181</v>
+        <v>10454.59470629463</v>
       </c>
       <c r="B681">
-        <v>0.1327904920343096</v>
+        <v>0.1041967850686301</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682">
-        <v>16236.59351515181</v>
+        <v>10480.54363605463</v>
       </c>
       <c r="B682">
-        <v>0.130432795920932</v>
+        <v>0.1019733478760776</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683">
-        <v>16352.73386500181</v>
+        <v>10549.00144365463</v>
       </c>
       <c r="B683">
-        <v>0.1242127819010217</v>
+        <v>0.09610753233199842</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684">
-        <v>16204.82079963181</v>
+        <v>10461.81551573463</v>
       </c>
       <c r="B684">
-        <v>0.1321344158681792</v>
+        <v>0.1035780691363075</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685">
-        <v>16500.88833536181</v>
+        <v>10636.32966541463</v>
       </c>
       <c r="B685">
-        <v>0.1162782192452197</v>
+        <v>0.08862480306275689</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686">
-        <v>16642.70445706925</v>
+        <v>10717.51674229463</v>
       </c>
       <c r="B686">
-        <v>0.1086831132686246</v>
+        <v>0.081668278537115</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687">
-        <v>16586.99990299965</v>
+        <v>10686.67917501463</v>
       </c>
       <c r="B687">
-        <v>0.111666427058649</v>
+        <v>0.08431059922827044</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688">
-        <v>16521.62949177158</v>
+        <v>10650.4737596645</v>
       </c>
       <c r="B688">
-        <v>0.1151674056147757</v>
+        <v>0.08741286463211673</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689">
-        <v>16673.3595134153</v>
+        <v>10734.32056088636</v>
       </c>
       <c r="B689">
-        <v>0.1070413506899872</v>
+        <v>0.08022844130377571</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690">
-        <v>16508.01420679305</v>
+        <v>10643.19849762161</v>
       </c>
       <c r="B690">
-        <v>0.1158965859862908</v>
+        <v>0.08803624634231977</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691">
-        <v>15826.0315682388</v>
+        <v>10268.23334289536</v>
       </c>
       <c r="B691">
-        <v>0.1524208566520975</v>
+        <v>0.1201651810860811</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692">
-        <v>15458.0082439988</v>
+        <v>10060.53233086672</v>
       </c>
       <c r="B692">
-        <v>0.1721307183787349</v>
+        <v>0.1379620674835738</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693">
-        <v>15911.2100829788</v>
+        <v>10316.18068855672</v>
       </c>
       <c r="B693">
-        <v>0.1478590350581189</v>
+        <v>0.1160568069599172</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694">
-        <v>16124.4265908788</v>
+        <v>10436.45480350672</v>
       </c>
       <c r="B694">
-        <v>0.1364400091112609</v>
+        <v>0.1057511048383067</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695">
-        <v>15792.9516719388</v>
+        <v>10249.47184943672</v>
       </c>
       <c r="B695">
-        <v>0.1541924839894433</v>
+        <v>0.1217727619277414</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696">
-        <v>15770.3773247588</v>
+        <v>10236.73779964672</v>
       </c>
       <c r="B696">
-        <v>0.1554014760075599</v>
+        <v>0.1228638805278828</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697">
-        <v>15849.4690095188</v>
+        <v>10281.35293042672</v>
       </c>
       <c r="B697">
-        <v>0.1511656407556351</v>
+        <v>0.1190410276378283</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698">
-        <v>15681.1099093205</v>
+        <v>10189.11683977672</v>
       </c>
       <c r="B698">
-        <v>0.1601822828181517</v>
+        <v>0.1269442882479429</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699">
-        <v>15489.69054911755</v>
+        <v>10087.11976734672</v>
       </c>
       <c r="B699">
-        <v>0.1704339404520607</v>
+        <v>0.1356839197653052</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700">
-        <v>15574.60997051755</v>
+        <v>10132.41560056672</v>
       </c>
       <c r="B700">
-        <v>0.1658859948642193</v>
+        <v>0.1318027408041504</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701">
-        <v>15966.98226071755</v>
+        <v>10341.70612002672</v>
       </c>
       <c r="B701">
-        <v>0.1448720996140292</v>
+        <v>0.1138696572696886</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702">
-        <v>16703.59264181755</v>
+        <v>10734.61248255672</v>
       </c>
       <c r="B702">
-        <v>0.1054221848895518</v>
+        <v>0.08020342796005808</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703">
-        <v>16614.86134005835</v>
+        <v>10687.35959809712</v>
       </c>
       <c r="B703">
-        <v>0.1101742795892829</v>
+        <v>0.08425229709395232</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704">
-        <v>16715.74915759551</v>
+        <v>10741.0235036457</v>
       </c>
       <c r="B704">
-        <v>0.1047711303794711</v>
+        <v>0.07965409884077201</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="A705">
-        <v>16903.09801620444</v>
+        <v>10840.53749572517</v>
       </c>
       <c r="B705">
-        <v>0.09473747257951792</v>
+        <v>0.07112723036429525</v>
       </c>
     </row>
     <row r="706" spans="1:3">
       <c r="A706">
-        <v>17323.11415310598</v>
+        <v>11063.34813155094</v>
       </c>
       <c r="B706">
-        <v>0.07224308313183425</v>
+        <v>0.05203567401984399</v>
       </c>
     </row>
     <row r="707" spans="1:3">
       <c r="A707">
-        <v>18056.36617936244</v>
+        <v>11451.86969415417</v>
       </c>
       <c r="B707">
-        <v>0.03297302850109352</v>
+        <v>0.01874515682355493</v>
       </c>
     </row>
     <row r="708" spans="1:3">
       <c r="A708">
-        <v>17758.73002201744</v>
+        <v>11294.33648647917</v>
       </c>
       <c r="B708">
-        <v>0.04891323424275995</v>
+        <v>0.03224340882262566</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="A709">
-        <v>17791.46040035262</v>
+        <v>11311.64851780437</v>
       </c>
       <c r="B709">
-        <v>0.04716032569388173</v>
+        <v>0.03076002531960287</v>
       </c>
     </row>
     <row r="710" spans="1:3">
       <c r="A710">
-        <v>17992.68383321939</v>
+        <v>11417.94652317559</v>
       </c>
       <c r="B710">
-        <v>0.03638360102254834</v>
+        <v>0.02165186784172402</v>
       </c>
     </row>
     <row r="711" spans="1:3">
       <c r="A711">
-        <v>17932.77632217823</v>
+        <v>11386.33699936987</v>
       </c>
       <c r="B711">
-        <v>0.03959200842837407</v>
+        <v>0.02436033372137836</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712">
-        <v>18520.37914747401</v>
+        <v>11696.15615144276</v>
       </c>
       <c r="B712">
-        <v>0.008122344214351096</v>
+        <v>0</v>
+      </c>
+      <c r="C712" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713">
-        <v>18206.93768083326</v>
+        <v>11531.03862495806</v>
       </c>
       <c r="B713">
-        <v>0.02490901929708245</v>
+        <v>0.01411724709782824</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714">
-        <v>18502.65711154641</v>
+        <v>11686.70023191809</v>
       </c>
       <c r="B714">
-        <v>0.009071465790731481</v>
+        <v>0.0008084638578891301</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715">
-        <v>18498.26341920208</v>
+        <v>11684.39488870634</v>
       </c>
       <c r="B715">
-        <v>0.009306774432527587</v>
+        <v>0.001005566494165611</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716">
-        <v>19461.9488013132</v>
+        <v>12190.8611688819</v>
       </c>
       <c r="B716">
         <v>0</v>
       </c>
       <c r="C716" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717">
-        <v>19281.583047845</v>
+        <v>12096.1410282478</v>
       </c>
       <c r="B717">
-        <v>0.00926761010983812</v>
+        <v>0.007769766165156677</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718">
-        <v>19431.09689201136</v>
+        <v>12174.61476577098</v>
       </c>
       <c r="B718">
-        <v>0.001585242547743171</v>
+        <v>0.001332670669106695</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719">
-        <v>19542.8837067576</v>
+        <v>12233.2498910841</v>
       </c>
       <c r="B719">
         <v>0</v>
@@ -6285,7 +6282,7 @@
     </row>
     <row r="720" spans="1:3">
       <c r="A720">
-        <v>20078.0580934468</v>
+        <v>12513.7656284365</v>
       </c>
       <c r="B720">
         <v>0</v>
@@ -6293,7 +6290,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721">
-        <v>20488.8659204896</v>
+        <v>12728.9670306279</v>
       </c>
       <c r="B721">
         <v>0</v>
@@ -6301,151 +6298,151 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722">
-        <v>19567.670797361</v>
+        <v>12246.6890778793</v>
       </c>
       <c r="B722">
-        <v>0.04496076682347638</v>
+        <v>0.03788822389029411</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723">
-        <v>19198.72736331455</v>
+        <v>12053.65057792765</v>
       </c>
       <c r="B723">
-        <v>0.06296778758676291</v>
+        <v>0.05305351573897032</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724">
-        <v>19347.13658379829</v>
+        <v>12131.26232019452</v>
       </c>
       <c r="B724">
-        <v>0.05572437933470709</v>
+        <v>0.04695626196495051</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725">
-        <v>19239.24843368829</v>
+        <v>12074.04393906327</v>
       </c>
       <c r="B725">
-        <v>0.06099007586123406</v>
+        <v>0.05145139350182804</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726">
-        <v>19792.07433640829</v>
+        <v>12366.72747762327</v>
       </c>
       <c r="B726">
-        <v>0.03400830415823541</v>
+        <v>0.02845789074109673</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727">
-        <v>19109.29253501829</v>
+        <v>12005.24117115327</v>
       </c>
       <c r="B727">
-        <v>0.06733283290666137</v>
+        <v>0.05685660570360751</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728">
-        <v>18633.73106382829</v>
+        <v>11753.46386928327</v>
       </c>
       <c r="B728">
-        <v>0.09054355979781736</v>
+        <v>0.07663647482135949</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729">
-        <v>19170.63928697829</v>
+        <v>12037.72008423327</v>
       </c>
       <c r="B729">
-        <v>0.06433868222023154</v>
+        <v>0.05430503077990401</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730">
-        <v>19587.22018131829</v>
+        <v>12258.27120105327</v>
       </c>
       <c r="B730">
-        <v>0.04400662011603274</v>
+        <v>0.03697832105637977</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731">
-        <v>19489.26599407829</v>
+        <v>12206.41115253327</v>
       </c>
       <c r="B731">
-        <v>0.04878746975505743</v>
+        <v>0.04105249678448208</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732">
-        <v>19348.38873174029</v>
+        <v>12132.87877764327</v>
       </c>
       <c r="B732">
-        <v>0.05566326575492853</v>
+        <v>0.04682927149943505</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733">
-        <v>19249.18475032399</v>
+        <v>12081.05833876012</v>
       </c>
       <c r="B733">
-        <v>0.06050511409349846</v>
+        <v>0.05090033545603578</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734">
-        <v>19844.60160364399</v>
+        <v>12391.94469802012</v>
       </c>
       <c r="B734">
-        <v>0.03144460602874677</v>
+        <v>0.02647680144012099</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735">
-        <v>19759.93403007932</v>
+        <v>12347.76467156807</v>
       </c>
       <c r="B735">
-        <v>0.03557697596533749</v>
+        <v>0.02994762718314814</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736">
-        <v>19362.9785588288</v>
+        <v>12140.71804665281</v>
       </c>
       <c r="B736">
-        <v>0.05495118012046118</v>
+        <v>0.04621341092012188</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737">
-        <v>19240.30826373155</v>
+        <v>12076.76998051669</v>
       </c>
       <c r="B737">
-        <v>0.06093834874039816</v>
+        <v>0.05123723304034966</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738">
-        <v>19383.00136752155</v>
+        <v>12151.92334456437</v>
       </c>
       <c r="B738">
-        <v>0.05397392697377901</v>
+        <v>0.04533311184443112</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739">
-        <v>19865.24623110154</v>
+        <v>12409.06633524617</v>
       </c>
       <c r="B739">
-        <v>0.03043700377600778</v>
+        <v>0.0251317090076516</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740">
-        <v>21015.70442335973</v>
+        <v>13022.31048860705</v>
       </c>
       <c r="B740">
         <v>0</v>
@@ -6456,610 +6453,610 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741">
-        <v>20857.3584705355</v>
+        <v>12937.96867239493</v>
       </c>
       <c r="B741">
-        <v>0.007534648833765645</v>
+        <v>0.006476716730560717</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="A742">
-        <v>20286.1470992353</v>
+        <v>12633.90089663867</v>
       </c>
       <c r="B742">
-        <v>0.03471486415242375</v>
+        <v>0.02982647298328422</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743">
-        <v>20255.71133168188</v>
+        <v>12617.71611366817</v>
       </c>
       <c r="B743">
-        <v>0.03616310338058837</v>
+        <v>0.03106932331960988</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744">
-        <v>20071.25234225388</v>
+        <v>12519.65812278417</v>
       </c>
       <c r="B744">
-        <v>0.04494030093305146</v>
+        <v>0.03859932277475953</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745">
-        <v>20144.69493474074</v>
+        <v>12558.68352822871</v>
       </c>
       <c r="B745">
-        <v>0.04144564802932915</v>
+        <v>0.03560251161143457</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746">
-        <v>20470.11644004074</v>
+        <v>12733.22795548334</v>
       </c>
       <c r="B746">
-        <v>0.02596096577721874</v>
+        <v>0.02219902016440345</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747">
-        <v>19923.78769816074</v>
+        <v>12437.04206691813</v>
       </c>
       <c r="B747">
-        <v>0.05195717941223443</v>
+        <v>0.04494351614492365</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748">
-        <v>19155.72760728885</v>
+        <v>12011.23257249558</v>
       </c>
       <c r="B748">
-        <v>0.08850413855285522</v>
+        <v>0.07764197582264987</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="A749">
-        <v>19174.62991928884</v>
+        <v>12022.92825649558</v>
       </c>
       <c r="B749">
-        <v>0.08760470108365537</v>
+        <v>0.07674384917989829</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750">
-        <v>18946.39772028885</v>
+        <v>11881.71105099558</v>
       </c>
       <c r="B750">
-        <v>0.09846477954699295</v>
+        <v>0.08758810033053299</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751">
-        <v>19023.10541732884</v>
+        <v>11929.17344527558</v>
       </c>
       <c r="B751">
-        <v>0.09481476166061964</v>
+        <v>0.0839434019245533</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752">
-        <v>19132.50552216885</v>
+        <v>11996.86405665558</v>
       </c>
       <c r="B752">
-        <v>0.0896091257877436</v>
+        <v>0.07874535266599658</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753">
-        <v>19060.76331708884</v>
+        <v>11952.47402859558</v>
       </c>
       <c r="B753">
-        <v>0.09302286836970797</v>
+        <v>0.08215412011159196</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754">
-        <v>18903.80539180884</v>
+        <v>11855.35732163558</v>
       </c>
       <c r="B754">
-        <v>0.1004914700457734</v>
+        <v>0.08961183716149379</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755">
-        <v>18989.33438808884</v>
+        <v>11908.27783809558</v>
       </c>
       <c r="B755">
-        <v>0.0964217041908193</v>
+        <v>0.08554800252122019</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756">
-        <v>18962.70063392885</v>
+        <v>11891.79837397558</v>
       </c>
       <c r="B756">
-        <v>0.09768903045423938</v>
+        <v>0.08681348180267456</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757">
-        <v>19083.12488436884</v>
+        <v>11966.31010455558</v>
       </c>
       <c r="B757">
-        <v>0.09195882755387197</v>
+        <v>0.0810916300126111</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758">
-        <v>18737.21059200884</v>
+        <v>11752.27786053558</v>
       </c>
       <c r="B758">
-        <v>0.1084186275868181</v>
+        <v>0.09752744178405148</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759">
-        <v>18802.93908600884</v>
+        <v>11792.94694353558</v>
       </c>
       <c r="B759">
-        <v>0.1052910382052821</v>
+        <v>0.09440441050357484</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760">
-        <v>18971.72814020884</v>
+        <v>11897.38408543558</v>
       </c>
       <c r="B760">
-        <v>0.09725947044054006</v>
+        <v>0.08638454782318727</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761">
-        <v>19004.86468624884</v>
+        <v>11917.88711021558</v>
       </c>
       <c r="B761">
-        <v>0.09568271881839763</v>
+        <v>0.08481009413480844</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762">
-        <v>18950.29318276884</v>
+        <v>11884.12134335558</v>
       </c>
       <c r="B762">
-        <v>0.0982794199510677</v>
+        <v>0.08740301087485558</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763">
-        <v>18966.34004630228</v>
+        <v>11893.67050129558</v>
       </c>
       <c r="B763">
-        <v>0.09751585460916068</v>
+        <v>0.08666971873377549</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764">
-        <v>18914.74867315194</v>
+        <v>11863.57502442041</v>
       </c>
       <c r="B764">
-        <v>0.09997075081968199</v>
+        <v>0.08898078917718888</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765">
-        <v>18694.17049607064</v>
+        <v>11740.84528817041</v>
       </c>
       <c r="B765">
-        <v>0.1104666244120093</v>
+        <v>0.09840536374537878</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766">
-        <v>18353.69842577064</v>
+        <v>11551.22456567041</v>
       </c>
       <c r="B766">
-        <v>0.1266674646713325</v>
+        <v>0.1129665833281782</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767">
-        <v>18372.36225087064</v>
+        <v>11561.61909817041</v>
       </c>
       <c r="B767">
-        <v>0.1257793752347844</v>
+        <v>0.1121683737854788</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768">
-        <v>18452.38648152064</v>
+        <v>11606.18737192041</v>
       </c>
       <c r="B768">
-        <v>0.1219715451931205</v>
+        <v>0.1087459186237016</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769">
-        <v>18463.63942257064</v>
+        <v>11612.45452567041</v>
       </c>
       <c r="B769">
-        <v>0.1214360912857325</v>
+        <v>0.1082646558128139</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770">
-        <v>18454.62666097064</v>
+        <v>11607.43500567041</v>
       </c>
       <c r="B770">
-        <v>0.1218649496964922</v>
+        <v>0.1086501112206227</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771">
-        <v>18230.71586497064</v>
+        <v>11482.73130567041</v>
       </c>
       <c r="B771">
-        <v>0.1325194008388063</v>
+        <v>0.1182262690083747</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772">
-        <v>18199.71536322064</v>
+        <v>11465.46604942041</v>
       </c>
       <c r="B772">
-        <v>0.133994512075884</v>
+        <v>0.1195520902798846</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773">
-        <v>18371.87701897064</v>
+        <v>11561.34885567041</v>
       </c>
       <c r="B773">
-        <v>0.1258024642490865</v>
+        <v>0.1121891260552268</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774">
-        <v>18422.68937082064</v>
+        <v>11589.64801942041</v>
       </c>
       <c r="B774">
-        <v>0.1233846365700143</v>
+        <v>0.1100159968110148</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775">
-        <v>18166.20910557064</v>
+        <v>11446.80525067041</v>
       </c>
       <c r="B775">
-        <v>0.1355888558568498</v>
+        <v>0.1209850770579471</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776">
-        <v>18291.76706912064</v>
+        <v>11516.73284192041</v>
       </c>
       <c r="B776">
-        <v>0.1296143731071573</v>
+        <v>0.1156152472331109</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777">
-        <v>18331.69537862064</v>
+        <v>11538.97030442041</v>
       </c>
       <c r="B777">
-        <v>0.1277144458577228</v>
+        <v>0.1139076038376126</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778">
-        <v>18232.16712298666</v>
+        <v>11486.43072942041</v>
       </c>
       <c r="B778">
-        <v>0.1324503449562728</v>
+        <v>0.1179421854923786</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779">
-        <v>18111.19303150666</v>
+        <v>11422.44293192041</v>
       </c>
       <c r="B779">
-        <v>0.1382067111975838</v>
+        <v>0.1228558909024885</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780">
-        <v>18167.86755358666</v>
+        <v>11452.42024192041</v>
       </c>
       <c r="B780">
-        <v>0.1355099411565566</v>
+        <v>0.1205538946456624</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781">
-        <v>18155.51774908666</v>
+        <v>11445.88796067041</v>
       </c>
       <c r="B781">
-        <v>0.1360975876256549</v>
+        <v>0.121055516938858</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782">
-        <v>18174.28864606666</v>
+        <v>11455.81660192041</v>
       </c>
       <c r="B782">
-        <v>0.1352044033382352</v>
+        <v>0.1202930837854873</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783">
-        <v>18333.50401798666</v>
+        <v>11540.03166692041</v>
       </c>
       <c r="B783">
-        <v>0.1276283845328401</v>
+        <v>0.1138261004438078</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784">
-        <v>18309.18961006666</v>
+        <v>11527.17085192041</v>
       </c>
       <c r="B784">
-        <v>0.1287853482695861</v>
+        <v>0.1148136989971714</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785">
-        <v>18499.53385217391</v>
+        <v>11627.59038774812</v>
       </c>
       <c r="B785">
-        <v>0.1197281100122914</v>
+        <v>0.1071023534632459</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786">
-        <v>18497.67012731883</v>
+        <v>11626.61466980558</v>
       </c>
       <c r="B786">
-        <v>0.1198167924955209</v>
+        <v>0.1071772801011414</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787">
-        <v>18458.61131825779</v>
+        <v>11606.10524256506</v>
       </c>
       <c r="B787">
-        <v>0.121675345902735</v>
+        <v>0.108752225442712</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788">
-        <v>18494.63542864403</v>
+        <v>11624.99354540318</v>
       </c>
       <c r="B788">
-        <v>0.1199611939685178</v>
+        <v>0.1073017683326128</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789">
-        <v>18487.01190813751</v>
+        <v>11621.00919998266</v>
       </c>
       <c r="B789">
-        <v>0.1203239474767013</v>
+        <v>0.1076077313507735</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790">
-        <v>18157.83525991431</v>
+        <v>11449.06188137178</v>
       </c>
       <c r="B790">
-        <v>0.1359873124342568</v>
+        <v>0.1208117874790092</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791">
-        <v>18045.41346827431</v>
+        <v>11387.9905589851</v>
       </c>
       <c r="B791">
-        <v>0.1413367306300628</v>
+        <v>0.1255015330076625</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792">
-        <v>18113.77939470431</v>
+        <v>11425.0690488251</v>
       </c>
       <c r="B792">
-        <v>0.1380836430793068</v>
+        <v>0.1226542280019619</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793">
-        <v>18019.60421368431</v>
+        <v>11373.9928230651</v>
       </c>
       <c r="B793">
-        <v>0.1425648243484591</v>
+        <v>0.12657643718325</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794">
-        <v>18176.47464044431</v>
+        <v>11459.0720259451</v>
       </c>
       <c r="B794">
-        <v>0.1351003861550082</v>
+        <v>0.1200430955804342</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795">
-        <v>18131.00188643431</v>
+        <v>11434.4097250651</v>
       </c>
       <c r="B795">
-        <v>0.1372641372762627</v>
+        <v>0.1219369454392267</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796">
-        <v>18043.47983179431</v>
+        <v>11386.9418447451</v>
       </c>
       <c r="B796">
-        <v>0.1414287397505304</v>
+        <v>0.1255820651252862</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797">
-        <v>17979.50209332431</v>
+        <v>11352.2433033851</v>
       </c>
       <c r="B797">
-        <v>0.1444730221205701</v>
+        <v>0.1282466108209488</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798">
-        <v>17731.45487228431</v>
+        <v>11217.7140598651</v>
       </c>
       <c r="B798">
-        <v>0.156275967957793</v>
+        <v>0.1385772847545567</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799">
-        <v>17693.03009822431</v>
+        <v>11196.8742545851</v>
       </c>
       <c r="B799">
-        <v>0.1581043517838088</v>
+        <v>0.1401776002514289</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800">
-        <v>17535.10638133431</v>
+        <v>11111.2237962651</v>
       </c>
       <c r="B800">
-        <v>0.1656189091694971</v>
+        <v>0.1467548092954716</v>
       </c>
     </row>
     <row r="801" spans="1:3">
       <c r="A801">
-        <v>17546.90614791431</v>
+        <v>11117.6234393051</v>
       </c>
       <c r="B801">
-        <v>0.1650574354095748</v>
+        <v>0.1462633724613093</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802">
-        <v>17566.16750095431</v>
+        <v>11128.0698988251</v>
       </c>
       <c r="B802">
-        <v>0.1641409135242274</v>
+        <v>0.1454611753758429</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803">
-        <v>17561.77827116431</v>
+        <v>11125.6893853051</v>
       </c>
       <c r="B803">
-        <v>0.1643497682788233</v>
+        <v>0.1456439780760306</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="A804">
-        <v>17656.25141556431</v>
+        <v>11176.9272125051</v>
       </c>
       <c r="B804">
-        <v>0.1598544088801162</v>
+        <v>0.1417093593119619</v>
       </c>
     </row>
     <row r="805" spans="1:3">
       <c r="A805">
-        <v>17778.49662227431</v>
+        <v>11243.2273109851</v>
       </c>
       <c r="B805">
-        <v>0.1540375585739175</v>
+        <v>0.136618089330494</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="A806">
-        <v>17632.37426571547</v>
+        <v>11167.3678657851</v>
       </c>
       <c r="B806">
-        <v>0.1609905663634841</v>
+        <v>0.1424434338625852</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807">
-        <v>17688.83947019126</v>
+        <v>11195.6113901851</v>
       </c>
       <c r="B807">
-        <v>0.1583037563789931</v>
+        <v>0.140274577235744</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808">
-        <v>17691.51100935518</v>
+        <v>11196.94307232706</v>
       </c>
       <c r="B808">
-        <v>0.1581766352932514</v>
+        <v>0.1401723156483609</v>
       </c>
     </row>
     <row r="809" spans="1:3">
       <c r="A809">
-        <v>17689.76539473263</v>
+        <v>11196.07241471293</v>
       </c>
       <c r="B809">
-        <v>0.1582596976825669</v>
+        <v>0.1402391745682807</v>
       </c>
     </row>
     <row r="810" spans="1:3">
       <c r="A810">
-        <v>17578.95664206327</v>
+        <v>11140.81464011825</v>
       </c>
       <c r="B810">
-        <v>0.1635323618977236</v>
+        <v>0.1444824902719744</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="A811">
-        <v>17598.09015856327</v>
+        <v>11150.6099753459</v>
       </c>
       <c r="B811">
-        <v>0.1626219229176847</v>
+        <v>0.1437302938598078</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="A812">
-        <v>17510.10013793327</v>
+        <v>11103.39214964146</v>
       </c>
       <c r="B812">
-        <v>0.1668087928344598</v>
+        <v>0.1473562115297748</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813">
-        <v>17385.62421763327</v>
+        <v>11036.73502164146</v>
       </c>
       <c r="B813">
-        <v>0.1727317882188848</v>
+        <v>0.1524748982680705</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="A814">
-        <v>16847.13968283327</v>
+        <v>10748.37537364146</v>
       </c>
       <c r="B814">
-        <v>0.1983547473142485</v>
+        <v>0.1746184071524794</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="A815">
-        <v>16672.47292546327</v>
+        <v>10654.84094244146</v>
       </c>
       <c r="B815">
-        <v>0.2066659965520258</v>
+        <v>0.1818010366314671</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="A816">
-        <v>16672.47292546328</v>
+        <v>10654.84094244146</v>
       </c>
       <c r="B816">
-        <v>0.2066659965520256</v>
+        <v>0.1818010366314673</v>
       </c>
       <c r="C816" s="2">
         <v>76</v>
